--- a/migforecasting/underground/tests on superdataset/test-22.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-22.xlsx
@@ -18,14 +18,58 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+  <si>
+    <t>Random Forest-100 (superdataset-24-f 3Ysum.csv)</t>
+  </si>
+  <si>
+    <t>train (R2)</t>
+  </si>
+  <si>
+    <t>test (R2)</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Random Forest-100 (superdataset-24-f.csv)</t>
+  </si>
+  <si>
+    <t>Random Forest-100 (superdataset-24-f.csv + extrapol)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +93,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,9 +120,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -109,12 +160,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +200,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -181,7 +232,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -331,12 +382,1610 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C3:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="Q55" sqref="Q55"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.91685320978340012</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.37057366514701851</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.93724331009075557</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.57366576059119523</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.71082267370955288</v>
+      </c>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <f>C5+1</f>
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.91492698184312449</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.40239116665089292</v>
+      </c>
+      <c r="H6" s="2">
+        <f>H5+1</f>
+        <v>2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.9364250101722924</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.56553616521035333</v>
+      </c>
+      <c r="N6" s="2">
+        <f>N5+1</f>
+        <v>2</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.68711559988607285</v>
+      </c>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <f t="shared" ref="C7:C54" si="0">C6+1</f>
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.9106540113230992</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.42175716619077852</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" ref="H7:H54" si="1">H6+1</f>
+        <v>3</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.93748788487154644</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.54048254862289968</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" ref="N7:N54" si="2">N6+1</f>
+        <v>3</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.69532096324226944</v>
+      </c>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.91213196672260932</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.40594232375289641</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.93445972011419998</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.59146116316912933</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.67254289956642233</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.91353090376933421</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.42106433687033551</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.93471122007508478</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.53550422975986045</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.73198071654438301</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.9156500350838519</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.41852666741979788</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.93944904316418554</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.52116622617217656</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.69492745956021817</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.91659692964835804</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.36669531676453732</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.93296991368132143</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.57724593823974513</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.76828138847458349</v>
+      </c>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.91427428929436594</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.41215024198354389</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.93890948114171424</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.5731095238741577</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.66726264747296449</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.91517095254500458</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.389883486107508</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.9371252243496363</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.48228783733264419</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.75467324397070557</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.91575717754649388</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.38321887453278047</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.93524286015752645</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.55117054184852332</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0.686317436541245</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.91549181563959903</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.39378973126585298</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.93052196850489854</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.60505452918149782</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.72168533064029228</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.91421275791182255</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.40144916744777898</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.93493401282551636</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.53659944711091323</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0.64469361545485504</v>
+      </c>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.91562378579620851</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.38850047148523231</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.93258856553483538</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.52478642040580104</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0.69073208168722033</v>
+      </c>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.91696227567784339</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.39800392186676559</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.93688509527115338</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.53574529388184999</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0.69757237117691528</v>
+      </c>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.91677123692571116</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.38688868986652591</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.93353114501585321</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.53564138198092914</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0.78026418559288091</v>
+      </c>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.91672739945557624</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.35140245925639041</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.93554892968946057</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.52885453953339723</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0.68796755488205963</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.91049265590539374</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.40524829305213261</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.9367749269307496</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.47915484083707838</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0.71907968584760817</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.91614993147766244</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.36448270636078473</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.93706312461485719</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.60508478889342243</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0.73522373512569006</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.91660197251146858</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.34946088781980522</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.93677359188377485</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.58097543648474426</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0.75239829425672067</v>
+      </c>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.91687719446491578</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.37750395540604997</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.93783223714103436</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0.53927680252713406</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0.72823896370273922</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.91641791507233139</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.42766004674476388</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.93696198381646711</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.56684582603709277</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0.68610852745506246</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.9158221835632615</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.3829665901286301</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.93487427539249823</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0.50691574291111374</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0.71747846367621226</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.91383980593886383</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.39786585131311908</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0.93424026651190117</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0.57549635679662603</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0.64609405814068599</v>
+      </c>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.9150924078737559</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.39894562619419249</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0.93473639651351537</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0.49969175042750458</v>
+      </c>
+      <c r="N28" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0.73135058479905801</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.91351261427058617</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.42979403127747873</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.93618157206029939</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0.58467038820419071</v>
+      </c>
+      <c r="N29" s="2">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0.70223316426516336</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.91461155388097093</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.35423143814587299</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.93779328378464677</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.53102749996911891</v>
+      </c>
+      <c r="N30" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0.70338919940573685</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.91544198136758992</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.39638576093478339</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0.9361542280997095</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0.50572409800716001</v>
+      </c>
+      <c r="N31" s="2">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0.69277970474541606</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.91437476269748863</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.36851118182246911</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0.93528221458546135</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0.56921542318050067</v>
+      </c>
+      <c r="N32" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0.74699486229429968</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.91120283776065036</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.41135420330047567</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0.93542606592995337</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0.56265910362812721</v>
+      </c>
+      <c r="N33" s="2">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0.66942162647923775</v>
+      </c>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.91642707372481824</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.35808043306993081</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0.93482881767601267</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0.54768755466741947</v>
+      </c>
+      <c r="N34" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0.69319322567375585</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.91513324745205105</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.38350263819600139</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0.93902328029141957</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0.51988643654018962</v>
+      </c>
+      <c r="N35" s="2">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0.61162647531472958</v>
+      </c>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.91025368796991857</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.4284228723465936</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0.93558795414096219</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0.56479956908036355</v>
+      </c>
+      <c r="N36" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0.70093629970969074</v>
+      </c>
+      <c r="P36" s="3"/>
+    </row>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.91471239086309208</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.40130147180435211</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0.93482386185653599</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0.52866303035105644</v>
+      </c>
+      <c r="N37" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0.69955637334434084</v>
+      </c>
+      <c r="P37" s="3"/>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C38" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.91224354462973722</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.44612813688276542</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0.9340720399328365</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0.59449859643989855</v>
+      </c>
+      <c r="N38" s="2">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0.7475504861975335</v>
+      </c>
+      <c r="P38" s="3"/>
+    </row>
+    <row r="39" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C39" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.91622603765873656</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.39525011199822652</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0.93654080260174999</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0.51886668871919794</v>
+      </c>
+      <c r="N39" s="2">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0.70300401636010323</v>
+      </c>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.91389577188280358</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.44196498897783959</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0.93498161667326896</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0.56764254581066531</v>
+      </c>
+      <c r="N40" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="O40" s="3">
+        <v>0.70651682227784585</v>
+      </c>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C41" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.91397863806454671</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.37669885304542428</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0.93682686758373235</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0.53679709072004633</v>
+      </c>
+      <c r="N41" s="2">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0.73870533920694514</v>
+      </c>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C42" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.91479329835061973</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.37899740045328578</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0.93328657464121012</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0.54523526365556463</v>
+      </c>
+      <c r="N42" s="2">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0.7127629173938046</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C43" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.91454060063642195</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.39015466902732732</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0.93640122479880195</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0.4984587764105497</v>
+      </c>
+      <c r="N43" s="2">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0.62076477515979644</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C44" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.91480631405751345</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.39461075931423439</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0.9356903120593667</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0.51100008552249709</v>
+      </c>
+      <c r="N44" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0.72129913235080312</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C45" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.91387707270442442</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.41518115925110088</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0.93271592181688967</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0.55145626449775287</v>
+      </c>
+      <c r="N45" s="2">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0.69810629675549607</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C46" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.91312874049649806</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.40626331869509258</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0.93345541265328213</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0.54749760292352456</v>
+      </c>
+      <c r="N46" s="2">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0.71549149664156109</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C47" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.91380819739250074</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.38088042315041371</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0.93565314714292436</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0.55762146140555124</v>
+      </c>
+      <c r="N47" s="2">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0.69045445062977073</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C48" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.91192658781867442</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.41115672169560058</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0.93810550874844734</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0.5064381570260309</v>
+      </c>
+      <c r="N48" s="2">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0.71789453552758953</v>
+      </c>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C49" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.91547062276159674</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.39273984543491641</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0.93837554549820112</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0.50477922207014803</v>
+      </c>
+      <c r="N49" s="2">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0.70051666140095081</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C50" s="2">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.91396028491350745</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.39451856910580979</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0.93582134710153908</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0.52867142289623414</v>
+      </c>
+      <c r="N50" s="2">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0.72708767260591844</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C51" s="2">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.91407568963509922</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.41128920442367878</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0.93541897116889139</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0.53645824034774159</v>
+      </c>
+      <c r="N51" s="2">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0.69153135174230596</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C52" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.91720723119884606</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.3978722984193247</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0.93503090158415247</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0.49908194143210138</v>
+      </c>
+      <c r="N52" s="2">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0.67195113444134669</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C53" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.91539179849624819</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0.41805219370924179</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0.9339728317282846</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0.5705278001846309</v>
+      </c>
+      <c r="N53" s="2">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0.61684584204049586</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C54" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.91427559461495422</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.38935302134494032</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0.93875136668458259</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0.49252797941498061</v>
+      </c>
+      <c r="N54" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0.66198286678719143</v>
+      </c>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="3">
+        <f>AVERAGE(D5:D54)</f>
+        <v>0.91463811942147899</v>
+      </c>
+      <c r="E56" s="3">
+        <f>AVERAGE(E5:E54)</f>
+        <v>0.39578134698910605</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I56" s="3">
+        <f>AVERAGE(I5:I54)</f>
+        <v>0.93574983716615889</v>
+      </c>
+      <c r="J56" s="3">
+        <f>AVERAGE(J5:J54)</f>
+        <v>0.54227290669870076</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O56" s="3">
+        <f>AVERAGE(O5:O54)</f>
+        <v>0.70141458420316483</v>
+      </c>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="3">
+        <f>_xlfn.STDEV.S(D5:D54)</f>
+        <v>1.7512715726983956E-3</v>
+      </c>
+      <c r="E57" s="3">
+        <f>_xlfn.STDEV.S(E5:E54)</f>
+        <v>2.232824238662065E-2</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3">
+        <f>_xlfn.STDEV.S(I5:I54)</f>
+        <v>1.8551682465640584E-3</v>
+      </c>
+      <c r="J57" s="3">
+        <f>_xlfn.STDEV.S(J5:J54)</f>
+        <v>3.1918063720656198E-2</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3">
+        <f>_xlfn.STDEV.S(O5:O54)</f>
+        <v>3.5869056824923633E-2</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/migforecasting/underground/tests on superdataset/test-22.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-22.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
+    <sheet name="r2" sheetId="1" r:id="rId1"/>
+    <sheet name="mae" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
   <si>
     <t>Random Forest-100 (superdataset-24-f 3Ysum.csv)</t>
   </si>
@@ -40,6 +41,12 @@
   </si>
   <si>
     <t>Random Forest-100 (superdataset-24-f.csv + extrapol)</t>
+  </si>
+  <si>
+    <t>train (MAE)</t>
+  </si>
+  <si>
+    <t>test (MAE)</t>
   </si>
 </sst>
 </file>
@@ -384,8 +391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="Q55" sqref="Q55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1988,4 +1995,1035 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:J58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>76.040969495620658</v>
+      </c>
+      <c r="E6" s="3">
+        <v>216.25894927536231</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>161.41076086956519</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <f>C6+1</f>
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>77.437589852008443</v>
+      </c>
+      <c r="E7" s="3">
+        <v>208.92392512077291</v>
+      </c>
+      <c r="H7" s="2">
+        <f>H6+1</f>
+        <v>2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>170.72165458937201</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <f t="shared" ref="C8:C55" si="0">C7+1</f>
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>77.399981878586516</v>
+      </c>
+      <c r="E8" s="3">
+        <v>203.42491545893719</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" ref="H8:H55" si="1">H7+1</f>
+        <v>3</v>
+      </c>
+      <c r="I8" s="3">
+        <v>169.05725845410629</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>78.028819087888849</v>
+      </c>
+      <c r="E9" s="3">
+        <v>205.889347826087</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I9" s="3">
+        <v>169.2183574879227</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>78.471685291452715</v>
+      </c>
+      <c r="E10" s="3">
+        <v>210.00800724637679</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>167.65380434782611</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>77.598640893989725</v>
+      </c>
+      <c r="E11" s="3">
+        <v>210.55535024154591</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I11" s="3">
+        <v>163.02039855072471</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D12" s="3">
+        <v>76.344327997583818</v>
+      </c>
+      <c r="E12" s="3">
+        <v>217.11873188405801</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I12" s="3">
+        <v>149.8863768115942</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D13" s="3">
+        <v>77.070996677740865</v>
+      </c>
+      <c r="E13" s="3">
+        <v>216.93109903381651</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I13" s="3">
+        <v>178.87368357487921</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D14" s="3">
+        <v>78.016106916339467</v>
+      </c>
+      <c r="E14" s="3">
+        <v>212.62183574879231</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I14" s="3">
+        <v>163.9604347826087</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D15" s="3">
+        <v>77.145620658411346</v>
+      </c>
+      <c r="E15" s="3">
+        <v>202.3907729468599</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I15" s="3">
+        <v>153.43497584541061</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D16" s="3">
+        <v>78.664759891271501</v>
+      </c>
+      <c r="E16" s="3">
+        <v>203.79548309178739</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I16" s="3">
+        <v>171.4710144927536</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D17" s="3">
+        <v>79.822244035034714</v>
+      </c>
+      <c r="E17" s="3">
+        <v>184.61871980676329</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I17" s="3">
+        <v>161.57458937198069</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D18" s="3">
+        <v>77.028683177287832</v>
+      </c>
+      <c r="E18" s="3">
+        <v>210.3666062801932</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="I18" s="3">
+        <v>148.18339371980679</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D19" s="3">
+        <v>75.970924192086983</v>
+      </c>
+      <c r="E19" s="3">
+        <v>205.06304347826091</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="I19" s="3">
+        <v>156.32503623188401</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D20" s="3">
+        <v>76.947058290546664</v>
+      </c>
+      <c r="E20" s="3">
+        <v>209.5690338164251</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I20" s="3">
+        <v>154.69625603864731</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D21" s="3">
+        <v>79.046052552099056</v>
+      </c>
+      <c r="E21" s="3">
+        <v>200.81948067632851</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I21" s="3">
+        <v>171.17892512077299</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D22" s="3">
+        <v>75.74309574146784</v>
+      </c>
+      <c r="E22" s="3">
+        <v>217.112077294686</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I22" s="3">
+        <v>167.50489130434781</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D23" s="3">
+        <v>77.269048625792806</v>
+      </c>
+      <c r="E23" s="3">
+        <v>199.72256038647339</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I23" s="3">
+        <v>162.57105072463759</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D24" s="3">
+        <v>77.117795228027774</v>
+      </c>
+      <c r="E24" s="3">
+        <v>208.33532608695651</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I24" s="3">
+        <v>172.7525724637681</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D25" s="3">
+        <v>78.634660223497434</v>
+      </c>
+      <c r="E25" s="3">
+        <v>197.21481884057971</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I25" s="3">
+        <v>155.23010869565209</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D26" s="3">
+        <v>78.4553065539112</v>
+      </c>
+      <c r="E26" s="3">
+        <v>200.88818840579711</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="I26" s="3">
+        <v>167.39851449275361</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D27" s="3">
+        <v>76.691760797342184</v>
+      </c>
+      <c r="E27" s="3">
+        <v>215.2133816425121</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="I27" s="3">
+        <v>157.68577294685991</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D28" s="3">
+        <v>78.245992147387497</v>
+      </c>
+      <c r="E28" s="3">
+        <v>213.6066666666666</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="I28" s="3">
+        <v>154.04536231884049</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D29" s="3">
+        <v>77.854089398973116</v>
+      </c>
+      <c r="E29" s="3">
+        <v>206.40169082125601</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="I29" s="3">
+        <v>159.85096618357491</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D30" s="3">
+        <v>77.379719118091202</v>
+      </c>
+      <c r="E30" s="3">
+        <v>211.1742391304347</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I30" s="3">
+        <v>158.20126811594201</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D31" s="3">
+        <v>78.949948655995158</v>
+      </c>
+      <c r="E31" s="3">
+        <v>205.2859541062802</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="I31" s="3">
+        <v>154.33900966183569</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D32" s="3">
+        <v>78.553772274237389</v>
+      </c>
+      <c r="E32" s="3">
+        <v>209.96460144927539</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="I32" s="3">
+        <v>161.0711835748792</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D33" s="3">
+        <v>78.27903956508608</v>
+      </c>
+      <c r="E33" s="3">
+        <v>206.06233091787439</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="I33" s="3">
+        <v>163.24235507246371</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D34" s="3">
+        <v>77.677097553609173</v>
+      </c>
+      <c r="E34" s="3">
+        <v>201.18555555555551</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="I34" s="3">
+        <v>163.75589371980681</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D35" s="3">
+        <v>77.34634853518574</v>
+      </c>
+      <c r="E35" s="3">
+        <v>206.6653260869565</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I35" s="3">
+        <v>166.74888888888881</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D36" s="3">
+        <v>76.744143763213515</v>
+      </c>
+      <c r="E36" s="3">
+        <v>210.65793478260861</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="I36" s="3">
+        <v>161.33194444444439</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D37" s="3">
+        <v>77.638731501057066</v>
+      </c>
+      <c r="E37" s="3">
+        <v>207.55211352657</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="I37" s="3">
+        <v>164.9084541062802</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C38" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D38" s="3">
+        <v>78.21748112352762</v>
+      </c>
+      <c r="E38" s="3">
+        <v>211.44378019323671</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="I38" s="3">
+        <v>148.26419082125599</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C39" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D39" s="3">
+        <v>77.649432195711256</v>
+      </c>
+      <c r="E39" s="3">
+        <v>207.05544685990341</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="I39" s="3">
+        <v>161.17509661835749</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D40" s="3">
+        <v>79.359670794321957</v>
+      </c>
+      <c r="E40" s="3">
+        <v>198.01435990338169</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="I40" s="3">
+        <v>158.97851449275359</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D41" s="3">
+        <v>76.664394442766536</v>
+      </c>
+      <c r="E41" s="3">
+        <v>214.56683574879219</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="I41" s="3">
+        <v>159.90434782608691</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C42" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D42" s="3">
+        <v>79.299652672908493</v>
+      </c>
+      <c r="E42" s="3">
+        <v>207.304577294686</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="I42" s="3">
+        <v>167.97318840579709</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D43" s="3">
+        <v>76.934808215040775</v>
+      </c>
+      <c r="E43" s="3">
+        <v>212.26068840579711</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="I43" s="3">
+        <v>148.5637439613526</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D44" s="3">
+        <v>77.887348233162186</v>
+      </c>
+      <c r="E44" s="3">
+        <v>192.08737922705311</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="I44" s="3">
+        <v>156.00725845410631</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C45" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D45" s="3">
+        <v>77.072790697674407</v>
+      </c>
+      <c r="E45" s="3">
+        <v>204.32443236714971</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I45" s="3">
+        <v>162.09408212560379</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C46" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D46" s="3">
+        <v>77.753304137722736</v>
+      </c>
+      <c r="E46" s="3">
+        <v>196.91400966183571</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="I46" s="3">
+        <v>165.0507125603865</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="D47" s="3">
+        <v>77.297496224705526</v>
+      </c>
+      <c r="E47" s="3">
+        <v>216.0747342995169</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="I47" s="3">
+        <v>150.6809661835749</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D48" s="3">
+        <v>75.581356085774686</v>
+      </c>
+      <c r="E48" s="3">
+        <v>214.19390096618349</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="I48" s="3">
+        <v>165.59160628019319</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C49" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D49" s="3">
+        <v>77.405297493204458</v>
+      </c>
+      <c r="E49" s="3">
+        <v>201.84665458937201</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="I49" s="3">
+        <v>148.0270531400966</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D50" s="3">
+        <v>77.616629417094529</v>
+      </c>
+      <c r="E50" s="3">
+        <v>215.09971014492751</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="I50" s="3">
+        <v>165.87092995169081</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C51" s="2">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D51" s="3">
+        <v>75.610564784053139</v>
+      </c>
+      <c r="E51" s="3">
+        <v>221.140652173913</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="I51" s="3">
+        <v>154.17257246376809</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C52" s="2">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D52" s="3">
+        <v>77.37492902446391</v>
+      </c>
+      <c r="E52" s="3">
+        <v>209.0242028985507</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="I52" s="3">
+        <v>160.0499637681159</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C53" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D53" s="3">
+        <v>77.999003322259128</v>
+      </c>
+      <c r="E53" s="3">
+        <v>197.6072946859903</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="I53" s="3">
+        <v>161.58518115942019</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C54" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D54" s="3">
+        <v>77.598501963153097</v>
+      </c>
+      <c r="E54" s="3">
+        <v>209.78096618357489</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="I54" s="3">
+        <v>165.24718599033821</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C55" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D55" s="3">
+        <v>78.19132890365448</v>
+      </c>
+      <c r="E55" s="3">
+        <v>194.1978260869565</v>
+      </c>
+      <c r="H55" s="2">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I55" s="3">
+        <v>164.29437198067629</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="3">
+        <f>AVERAGE(D6:D55)</f>
+        <v>77.582580006040459</v>
+      </c>
+      <c r="E57" s="3">
+        <f>AVERAGE(E6:E55)</f>
+        <v>207.1667103864734</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3">
+        <f>AVERAGE(I6:I55)</f>
+        <v>161.29672246376811</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="3">
+        <f>_xlfn.STDEV.S(D6:D55)</f>
+        <v>0.95798694002007079</v>
+      </c>
+      <c r="E58" s="3">
+        <f>_xlfn.STDEV.S(E6:E55)</f>
+        <v>7.3329690189643877</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3">
+        <f>_xlfn.STDEV.S(I6:I55)</f>
+        <v>7.0858568587077295</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/migforecasting/underground/tests on superdataset/test-22.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-22.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="r2" sheetId="1" r:id="rId1"/>
     <sheet name="mae" sheetId="2" r:id="rId2"/>
+    <sheet name="mse" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
   <si>
     <t>Random Forest-100 (superdataset-24-f 3Ysum.csv)</t>
   </si>
@@ -47,6 +48,12 @@
   </si>
   <si>
     <t>test (MAE)</t>
+  </si>
+  <si>
+    <t>train (MSE)</t>
+  </si>
+  <si>
+    <t>test (MSE)</t>
   </si>
 </sst>
 </file>
@@ -2001,8 +2008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3026,4 +3033,1033 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:J57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>14472.64988106312</v>
+      </c>
+      <c r="E5" s="3">
+        <v>106931.6096601449</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>49265.02857741544</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <f>C5+1</f>
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>14305.45225496829</v>
+      </c>
+      <c r="E6" s="3">
+        <v>88916.10351884058</v>
+      </c>
+      <c r="I6" s="2">
+        <f>I5+1</f>
+        <v>2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>58818.56247403381</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <f t="shared" ref="C7:C54" si="0">C6+1</f>
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>14524.73927236485</v>
+      </c>
+      <c r="E7" s="3">
+        <v>101449.7523981884</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" ref="I7:I54" si="1">I6+1</f>
+        <v>3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>67195.467338888877</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D8" s="3">
+        <v>13808.563179039569</v>
+      </c>
+      <c r="E8" s="3">
+        <v>96576.152567270517</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J8" s="3">
+        <v>64619.240849879207</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>14399.87203600121</v>
+      </c>
+      <c r="E9" s="3">
+        <v>117724.33400954099</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>70697.206387318831</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D10" s="3">
+        <v>13869.836735759591</v>
+      </c>
+      <c r="E10" s="3">
+        <v>107362.4577018116</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J10" s="3">
+        <v>55316.314691666666</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D11" s="3">
+        <v>14512.47776635457</v>
+      </c>
+      <c r="E11" s="3">
+        <v>101786.78091328499</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J11" s="3">
+        <v>58087.232233574883</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D12" s="3">
+        <v>13976.63547088493</v>
+      </c>
+      <c r="E12" s="3">
+        <v>115816.4717109903</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J12" s="3">
+        <v>63662.201225120771</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D13" s="3">
+        <v>14164.36500006041</v>
+      </c>
+      <c r="E13" s="3">
+        <v>101737.0387826087</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J13" s="3">
+        <v>78609.464918115933</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D14" s="3">
+        <v>14274.595672153429</v>
+      </c>
+      <c r="E14" s="3">
+        <v>85807.5686190821</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
+        <v>86002.54880905796</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D15" s="3">
+        <v>13999.72534167925</v>
+      </c>
+      <c r="E15" s="3">
+        <v>92459.487969323658</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="J15" s="3">
+        <v>53541.947813164239</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D16" s="3">
+        <v>13686.852489127161</v>
+      </c>
+      <c r="E16" s="3">
+        <v>100323.37681050719</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J16" s="3">
+        <v>84907.677460627994</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D17" s="3">
+        <v>13857.024899577171</v>
+      </c>
+      <c r="E17" s="3">
+        <v>102861.1459449275</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="J17" s="3">
+        <v>48716.238712318853</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D18" s="3">
+        <v>13917.57896886137</v>
+      </c>
+      <c r="E18" s="3">
+        <v>102841.4126152174</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="J18" s="3">
+        <v>83958.841392512055</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D19" s="3">
+        <v>14612.74516508608</v>
+      </c>
+      <c r="E19" s="3">
+        <v>95352.06761908211</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J19" s="3">
+        <v>66318.721190821248</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D20" s="3">
+        <v>14719.25502893386</v>
+      </c>
+      <c r="E20" s="3">
+        <v>92022.831638768097</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J20" s="3">
+        <v>59651.60401485506</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D21" s="3">
+        <v>14435.72537879795</v>
+      </c>
+      <c r="E21" s="3">
+        <v>97111.946798550707</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="J21" s="3">
+        <v>61687.480739855069</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D22" s="3">
+        <v>14636.825242917541</v>
+      </c>
+      <c r="E22" s="3">
+        <v>92629.269923550688</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="J22" s="3">
+        <v>61370.274874879229</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D23" s="3">
+        <v>14012.21186523709</v>
+      </c>
+      <c r="E23" s="3">
+        <v>109907.2718836956</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="J23" s="3">
+        <v>58349.785063768111</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D24" s="3">
+        <v>14120.70826324373</v>
+      </c>
+      <c r="E24" s="3">
+        <v>117379.05523393719</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="J24" s="3">
+        <v>59990.995209541063</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D25" s="3">
+        <v>14009.62938384174</v>
+      </c>
+      <c r="E25" s="3">
+        <v>98210.676894082106</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="J25" s="3">
+        <v>66750.486900120755</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D26" s="3">
+        <v>14034.98290721836</v>
+      </c>
+      <c r="E26" s="3">
+        <v>104687.82698913039</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="J26" s="3">
+        <v>64229.607232850227</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D27" s="3">
+        <v>14107.5000550891</v>
+      </c>
+      <c r="E27" s="3">
+        <v>102515.8324177536</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="J27" s="3">
+        <v>69500.707875724635</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D28" s="3">
+        <v>13661.858402083961</v>
+      </c>
+      <c r="E28" s="3">
+        <v>126454.99967729471</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="J28" s="3">
+        <v>67283.689593719799</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D29" s="3">
+        <v>13759.03128631833</v>
+      </c>
+      <c r="E29" s="3">
+        <v>110677.04665724641</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="J29" s="3">
+        <v>68335.842050241525</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D30" s="3">
+        <v>13650.724136605249</v>
+      </c>
+      <c r="E30" s="3">
+        <v>94867.477355313982</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="J30" s="3">
+        <v>55890.426562318818</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D31" s="3">
+        <v>14229.626088825131</v>
+      </c>
+      <c r="E31" s="3">
+        <v>101831.08670881639</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="J31" s="3">
+        <v>63175.939701328498</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D32" s="3">
+        <v>14501.703433162191</v>
+      </c>
+      <c r="E32" s="3">
+        <v>93467.273605917857</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="J32" s="3">
+        <v>88029.787996980667</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D33" s="3">
+        <v>14561.99219981878</v>
+      </c>
+      <c r="E33" s="3">
+        <v>102589.9004944444</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="J33" s="3">
+        <v>68119.972467270505</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D34" s="3">
+        <v>13693.48984971308</v>
+      </c>
+      <c r="E34" s="3">
+        <v>114580.7192165459</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J34" s="3">
+        <v>61230.218525724638</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D35" s="3">
+        <v>13900.405796949561</v>
+      </c>
+      <c r="E35" s="3">
+        <v>93515.348788768082</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="J35" s="3">
+        <v>51018.586872463748</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D36" s="3">
+        <v>13966.472064874661</v>
+      </c>
+      <c r="E36" s="3">
+        <v>88972.667498550698</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="J36" s="3">
+        <v>73380.912309541032</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D37" s="3">
+        <v>14595.97997124736</v>
+      </c>
+      <c r="E37" s="3">
+        <v>81875.273417512071</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="J37" s="3">
+        <v>71240.693789130426</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C38" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D38" s="3">
+        <v>14139.08958372093</v>
+      </c>
+      <c r="E38" s="3">
+        <v>93863.921420169063</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="J38" s="3">
+        <v>75293.082444202868</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C39" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D39" s="3">
+        <v>14337.830077771059</v>
+      </c>
+      <c r="E39" s="3">
+        <v>106356.1402423913</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="J39" s="3">
+        <v>84220.349138164253</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D40" s="3">
+        <v>14230.124794019939</v>
+      </c>
+      <c r="E40" s="3">
+        <v>90332.861859420285</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="J40" s="3">
+        <v>60400.966858212538</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C41" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D41" s="3">
+        <v>14170.686421413469</v>
+      </c>
+      <c r="E41" s="3">
+        <v>102687.47743816421</v>
+      </c>
+      <c r="I41" s="2">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="J41" s="3">
+        <v>47032.245040821261</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C42" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D42" s="3">
+        <v>13727.467442011481</v>
+      </c>
+      <c r="E42" s="3">
+        <v>90191.616622705318</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="J42" s="3">
+        <v>79065.172089492728</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C43" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D43" s="3">
+        <v>14349.93850434914</v>
+      </c>
+      <c r="E43" s="3">
+        <v>118227.6784173913</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="J43" s="3">
+        <v>65078.269603019311</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C44" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D44" s="3">
+        <v>14070.141570764121</v>
+      </c>
+      <c r="E44" s="3">
+        <v>95998.21083369563</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J44" s="3">
+        <v>65533.982240458943</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C45" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D45" s="3">
+        <v>13984.843108939889</v>
+      </c>
+      <c r="E45" s="3">
+        <v>101136.1420095411</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="J45" s="3">
+        <v>54577.709866908197</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C46" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="D46" s="3">
+        <v>14637.799070582911</v>
+      </c>
+      <c r="E46" s="3">
+        <v>95495.367235507219</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="J46" s="3">
+        <v>57700.707534903369</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C47" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D47" s="3">
+        <v>13866.987629386889</v>
+      </c>
+      <c r="E47" s="3">
+        <v>99834.700167028976</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="J47" s="3">
+        <v>61525.771995652169</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C48" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D48" s="3">
+        <v>14018.17507765025</v>
+      </c>
+      <c r="E48" s="3">
+        <v>106086.0673585749</v>
+      </c>
+      <c r="I48" s="2">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="J48" s="3">
+        <v>57627.736564613529</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C49" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D49" s="3">
+        <v>13640.824842192689</v>
+      </c>
+      <c r="E49" s="3">
+        <v>97269.419271618346</v>
+      </c>
+      <c r="I49" s="2">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="J49" s="3">
+        <v>48210.813904830909</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C50" s="2">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D50" s="3">
+        <v>14827.913353760199</v>
+      </c>
+      <c r="E50" s="3">
+        <v>90625.013886111119</v>
+      </c>
+      <c r="I50" s="2">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="J50" s="3">
+        <v>58273.119213526559</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C51" s="2">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D51" s="3">
+        <v>14047.412587012979</v>
+      </c>
+      <c r="E51" s="3">
+        <v>97636.170390942018</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="J51" s="3">
+        <v>64539.421368236697</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C52" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D52" s="3">
+        <v>13694.23739942616</v>
+      </c>
+      <c r="E52" s="3">
+        <v>102472.6262135266</v>
+      </c>
+      <c r="I52" s="2">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="J52" s="3">
+        <v>73643.358316062804</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C53" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D53" s="3">
+        <v>14242.88542808819</v>
+      </c>
+      <c r="E53" s="3">
+        <v>106191.5808006038</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="J53" s="3">
+        <v>68843.376234903364</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C54" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D54" s="3">
+        <v>13300.985269465409</v>
+      </c>
+      <c r="E54" s="3">
+        <v>111203.94121135261</v>
+      </c>
+      <c r="I54" s="2">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J54" s="3">
+        <v>68915.139091787423</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="3">
+        <f>AVERAGE(D5:D54)</f>
+        <v>14125.371552968289</v>
+      </c>
+      <c r="E56" s="3">
+        <f>AVERAGE(E5:E54)</f>
+        <v>100937.0240283889</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J56" s="3">
+        <f>AVERAGE(J5:J54)</f>
+        <v>64988.698547212553</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="3">
+        <f>_xlfn.STDEV.S(D5:D54)</f>
+        <v>341.10332299795226</v>
+      </c>
+      <c r="E57" s="3">
+        <f>_xlfn.STDEV.S(E5:E54)</f>
+        <v>9225.3637577135632</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3">
+        <f>_xlfn.STDEV.S(J5:J54)</f>
+        <v>10134.204813971275</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/migforecasting/underground/tests on superdataset/test-22.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="r2" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
   <si>
     <t>Random Forest-100 (superdataset-24-f 3Ysum.csv)</t>
   </si>
@@ -54,6 +54,24 @@
   </si>
   <si>
     <t>test (MSE)</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>next year</t>
+  </si>
+  <si>
+    <t>3 years sum</t>
+  </si>
+  <si>
+    <t>(next year * 3)</t>
+  </si>
+  <si>
+    <t>RF-100 (superdataset-24-f.csv + extrapol)</t>
+  </si>
+  <si>
+    <t>RF-100 (superdataset-24-f 3Y.csv + extrapol)</t>
   </si>
 </sst>
 </file>
@@ -107,13 +125,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -131,6 +152,950 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400"/>
+              <a:t>Тестовая</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" baseline="0"/>
+              <a:t> выборка</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31476377952755907"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'r2'!$E$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'r2'!$F$66:$H$66</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>next year</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3 years sum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(next year * 3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'r2'!$F$67:$H$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.39578134698910605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54227290669870076</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70141458420316483</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7504-4B4F-A916-F8742BB765F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="1027776431"/>
+        <c:axId val="1023769887"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1027776431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1023769887"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1023769887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1027776431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -396,15 +1361,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:P57"/>
+  <dimension ref="C3:T67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="X47" sqref="X47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
@@ -414,11 +1383,14 @@
       </c>
       <c r="J3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>1</v>
@@ -437,8 +1409,12 @@
       <c r="O4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S4" s="2"/>
+      <c r="T4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2">
         <v>1</v>
       </c>
@@ -464,8 +1440,14 @@
         <v>0.71082267370955288</v>
       </c>
       <c r="P5" s="3"/>
-    </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S5" s="2">
+        <v>1</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0.71804558825725728</v>
+      </c>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <f>C5+1</f>
         <v>2</v>
@@ -494,8 +1476,15 @@
         <v>0.68711559988607285</v>
       </c>
       <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S6" s="2">
+        <f>S5+1</f>
+        <v>2</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0.72185381859637232</v>
+      </c>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <f t="shared" ref="C7:C54" si="0">C6+1</f>
         <v>3</v>
@@ -524,8 +1513,15 @@
         <v>0.69532096324226944</v>
       </c>
       <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S7" s="2">
+        <f t="shared" ref="S7:S54" si="3">S6+1</f>
+        <v>3</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0.6981084741413246</v>
+      </c>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -554,8 +1550,15 @@
         <v>0.67254289956642233</v>
       </c>
       <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S8" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0.71829244406514348</v>
+      </c>
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -584,8 +1587,15 @@
         <v>0.73198071654438301</v>
       </c>
       <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S9" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0.65047079592362311</v>
+      </c>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -614,8 +1624,15 @@
         <v>0.69492745956021817</v>
       </c>
       <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S10" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0.63502855952427495</v>
+      </c>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -644,8 +1661,15 @@
         <v>0.76828138847458349</v>
       </c>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S11" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0.713213169608098</v>
+      </c>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -674,8 +1698,15 @@
         <v>0.66726264747296449</v>
       </c>
       <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S12" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0.69011361740712807</v>
+      </c>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -704,8 +1735,15 @@
         <v>0.75467324397070557</v>
       </c>
       <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S13" s="2">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0.70561048728582532</v>
+      </c>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -734,8 +1772,15 @@
         <v>0.686317436541245</v>
       </c>
       <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S14" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0.66811210736681925</v>
+      </c>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -764,8 +1809,15 @@
         <v>0.72168533064029228</v>
       </c>
       <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S15" s="2">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0.68557594968839686</v>
+      </c>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -794,8 +1846,15 @@
         <v>0.64469361545485504</v>
       </c>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S16" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0.6851485124334683</v>
+      </c>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -824,8 +1883,15 @@
         <v>0.69073208168722033</v>
       </c>
       <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S17" s="2">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0.62803686401783998</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -854,8 +1920,15 @@
         <v>0.69757237117691528</v>
       </c>
       <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S18" s="2">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0.69475380219944394</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -884,8 +1957,15 @@
         <v>0.78026418559288091</v>
       </c>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S19" s="2">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="T19" s="3">
+        <v>0.66275212975079434</v>
+      </c>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -914,8 +1994,15 @@
         <v>0.68796755488205963</v>
       </c>
       <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S20" s="2">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0.66840503818741026</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -944,8 +2031,15 @@
         <v>0.71907968584760817</v>
       </c>
       <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S21" s="2">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0.64333505103013144</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -974,8 +2068,15 @@
         <v>0.73522373512569006</v>
       </c>
       <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S22" s="2">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0.69545562366911273</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1004,8 +2105,15 @@
         <v>0.75239829425672067</v>
       </c>
       <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S23" s="2">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0.68440236121772313</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1034,8 +2142,15 @@
         <v>0.72823896370273922</v>
       </c>
       <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S24" s="2">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0.66391507977526842</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C25" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1064,8 +2179,15 @@
         <v>0.68610852745506246</v>
       </c>
       <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S25" s="2">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0.66425350778334002</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C26" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1094,8 +2216,15 @@
         <v>0.71747846367621226</v>
       </c>
       <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S26" s="2">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0.718111569087034</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1124,8 +2253,15 @@
         <v>0.64609405814068599</v>
       </c>
       <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S27" s="2">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0.58926158900661996</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C28" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1154,8 +2290,15 @@
         <v>0.73135058479905801</v>
       </c>
       <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S28" s="2">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0.6880634305504858</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1184,8 +2327,15 @@
         <v>0.70223316426516336</v>
       </c>
       <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S29" s="2">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0.66240162760884957</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C30" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1214,8 +2364,15 @@
         <v>0.70338919940573685</v>
       </c>
       <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S30" s="2">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0.62962520878089356</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1244,8 +2401,15 @@
         <v>0.69277970474541606</v>
       </c>
       <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S31" s="2">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0.70429496117698243</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1274,8 +2438,15 @@
         <v>0.74699486229429968</v>
       </c>
       <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S32" s="2">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0.73460558179431357</v>
+      </c>
+    </row>
+    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1304,8 +2475,15 @@
         <v>0.66942162647923775</v>
       </c>
       <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S33" s="2">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0.6695388415189456</v>
+      </c>
+    </row>
+    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1334,8 +2512,15 @@
         <v>0.69319322567375585</v>
       </c>
       <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S34" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0.68027852618929274</v>
+      </c>
+    </row>
+    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1364,8 +2549,15 @@
         <v>0.61162647531472958</v>
       </c>
       <c r="P35" s="3"/>
-    </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S35" s="2">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0.6993139246063016</v>
+      </c>
+    </row>
+    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1394,8 +2586,15 @@
         <v>0.70093629970969074</v>
       </c>
       <c r="P36" s="3"/>
-    </row>
-    <row r="37" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S36" s="2">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="T36" s="3">
+        <v>0.72318087625019356</v>
+      </c>
+    </row>
+    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1424,8 +2623,15 @@
         <v>0.69955637334434084</v>
       </c>
       <c r="P37" s="3"/>
-    </row>
-    <row r="38" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S37" s="2">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="T37" s="3">
+        <v>0.67643500801796064</v>
+      </c>
+    </row>
+    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1454,8 +2660,15 @@
         <v>0.7475504861975335</v>
       </c>
       <c r="P38" s="3"/>
-    </row>
-    <row r="39" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S38" s="2">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="T38" s="3">
+        <v>0.63680085907475925</v>
+      </c>
+    </row>
+    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1484,8 +2697,15 @@
         <v>0.70300401636010323</v>
       </c>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S39" s="2">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="T39" s="3">
+        <v>0.75748717948567634</v>
+      </c>
+    </row>
+    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1514,8 +2734,15 @@
         <v>0.70651682227784585</v>
       </c>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S40" s="2">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="T40" s="3">
+        <v>0.6527747799660627</v>
+      </c>
+    </row>
+    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1544,8 +2771,15 @@
         <v>0.73870533920694514</v>
       </c>
       <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S41" s="2">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0.67055880848726712</v>
+      </c>
+    </row>
+    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1574,8 +2808,15 @@
         <v>0.7127629173938046</v>
       </c>
       <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S42" s="2">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0.62658464583364371</v>
+      </c>
+    </row>
+    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1604,8 +2845,15 @@
         <v>0.62076477515979644</v>
       </c>
       <c r="P43" s="3"/>
-    </row>
-    <row r="44" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S43" s="2">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0.70583496249645283</v>
+      </c>
+    </row>
+    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C44" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1634,8 +2882,15 @@
         <v>0.72129913235080312</v>
       </c>
       <c r="P44" s="3"/>
-    </row>
-    <row r="45" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S44" s="2">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0.65343318008461004</v>
+      </c>
+    </row>
+    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C45" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1664,8 +2919,15 @@
         <v>0.69810629675549607</v>
       </c>
       <c r="P45" s="3"/>
-    </row>
-    <row r="46" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S45" s="2">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0.63720884986360993</v>
+      </c>
+    </row>
+    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C46" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1694,8 +2956,15 @@
         <v>0.71549149664156109</v>
       </c>
       <c r="P46" s="3"/>
-    </row>
-    <row r="47" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S46" s="2">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0.7059213929907977</v>
+      </c>
+    </row>
+    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C47" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1724,8 +2993,15 @@
         <v>0.69045445062977073</v>
       </c>
       <c r="P47" s="3"/>
-    </row>
-    <row r="48" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S47" s="2">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0.62604470493530884</v>
+      </c>
+    </row>
+    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C48" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1754,8 +3030,15 @@
         <v>0.71789453552758953</v>
       </c>
       <c r="P48" s="3"/>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S48" s="2">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0.66627333730157168</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1784,8 +3067,15 @@
         <v>0.70051666140095081</v>
       </c>
       <c r="P49" s="3"/>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S49" s="2">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0.66292406711079277</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1814,8 +3104,15 @@
         <v>0.72708767260591844</v>
       </c>
       <c r="P50" s="3"/>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S50" s="2">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0.65075574089508481</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1844,8 +3141,15 @@
         <v>0.69153135174230596</v>
       </c>
       <c r="P51" s="3"/>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S51" s="2">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0.70793932329002096</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1874,8 +3178,15 @@
         <v>0.67195113444134669</v>
       </c>
       <c r="P52" s="3"/>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S52" s="2">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0.68647072570056089</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1904,8 +3215,15 @@
         <v>0.61684584204049586</v>
       </c>
       <c r="P53" s="3"/>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S53" s="2">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0.66932989478909277</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1934,8 +3252,15 @@
         <v>0.66198286678719143</v>
       </c>
       <c r="P54" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S54" s="2">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="T54" s="3">
+        <v>0.72746954695321864</v>
+      </c>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C56" s="2" t="s">
         <v>3</v>
       </c>
@@ -1966,8 +3291,15 @@
         <v>0.70141458420316483</v>
       </c>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="S56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T56" s="3">
+        <f>AVERAGE(T5:T54)</f>
+        <v>0.67827612251550418</v>
+      </c>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C57" s="2" t="s">
         <v>4</v>
       </c>
@@ -1998,9 +3330,44 @@
         <v>3.5869056824923633E-2</v>
       </c>
       <c r="P57" s="3"/>
+      <c r="S57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T57" s="3">
+        <f>_xlfn.STDEV.S(T5:T54)</f>
+        <v>3.4003288288829397E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E66" s="2"/>
+      <c r="F66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0.39578134698910605</v>
+      </c>
+      <c r="G67" s="4">
+        <v>0.54227290669870076</v>
+      </c>
+      <c r="H67" s="4">
+        <v>0.70141458420316483</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3039,7 +4406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>

--- a/migforecasting/underground/tests on superdataset/test-22.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-22.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
   <si>
     <t>Random Forest-100 (superdataset-24-f 3Ysum.csv)</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>RF-100 (superdataset-24-f 3Y.csv + extrapol)</t>
+  </si>
+  <si>
+    <t>RF-100 (superdataset-24-f 2Y.csv + extrapol)</t>
   </si>
 </sst>
 </file>
@@ -1361,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:T67"/>
+  <dimension ref="C3:Y67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="X47" sqref="X47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U71" sqref="U71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,7 +1376,7 @@
     <col min="8" max="8" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1387,10 +1390,13 @@
       </c>
       <c r="P3" s="1"/>
       <c r="S3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>1</v>
@@ -1413,8 +1419,12 @@
       <c r="T4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C5" s="2">
         <v>1</v>
       </c>
@@ -1444,10 +1454,16 @@
         <v>1</v>
       </c>
       <c r="T5" s="3">
+        <v>0.74759938062002673</v>
+      </c>
+      <c r="X5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="3">
         <v>0.71804558825725728</v>
       </c>
     </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <f>C5+1</f>
         <v>2</v>
@@ -1481,10 +1497,17 @@
         <v>2</v>
       </c>
       <c r="T6" s="3">
+        <v>0.75272216793297142</v>
+      </c>
+      <c r="X6" s="2">
+        <f>X5+1</f>
+        <v>2</v>
+      </c>
+      <c r="Y6" s="3">
         <v>0.72185381859637232</v>
       </c>
     </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <f t="shared" ref="C7:C54" si="0">C6+1</f>
         <v>3</v>
@@ -1518,10 +1541,17 @@
         <v>3</v>
       </c>
       <c r="T7" s="3">
+        <v>0.81290062745285052</v>
+      </c>
+      <c r="X7" s="2">
+        <f t="shared" ref="X7:X54" si="4">X6+1</f>
+        <v>3</v>
+      </c>
+      <c r="Y7" s="3">
         <v>0.6981084741413246</v>
       </c>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1555,10 +1585,17 @@
         <v>4</v>
       </c>
       <c r="T8" s="3">
+        <v>0.76359659281275505</v>
+      </c>
+      <c r="X8" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="Y8" s="3">
         <v>0.71829244406514348</v>
       </c>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1592,10 +1629,17 @@
         <v>5</v>
       </c>
       <c r="T9" s="3">
+        <v>0.7545887963884832</v>
+      </c>
+      <c r="X9" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="Y9" s="3">
         <v>0.65047079592362311</v>
       </c>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1629,10 +1673,17 @@
         <v>6</v>
       </c>
       <c r="T10" s="3">
+        <v>0.80385166737402391</v>
+      </c>
+      <c r="X10" s="2">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="Y10" s="3">
         <v>0.63502855952427495</v>
       </c>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1666,10 +1717,17 @@
         <v>7</v>
       </c>
       <c r="T11" s="3">
+        <v>0.81537059224632424</v>
+      </c>
+      <c r="X11" s="2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="Y11" s="3">
         <v>0.713213169608098</v>
       </c>
     </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1703,10 +1761,17 @@
         <v>8</v>
       </c>
       <c r="T12" s="3">
+        <v>0.80425470934478516</v>
+      </c>
+      <c r="X12" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="Y12" s="3">
         <v>0.69011361740712807</v>
       </c>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1740,10 +1805,17 @@
         <v>9</v>
       </c>
       <c r="T13" s="3">
+        <v>0.7576941490745841</v>
+      </c>
+      <c r="X13" s="2">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="Y13" s="3">
         <v>0.70561048728582532</v>
       </c>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1777,10 +1849,17 @@
         <v>10</v>
       </c>
       <c r="T14" s="3">
+        <v>0.74667295040812309</v>
+      </c>
+      <c r="X14" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="Y14" s="3">
         <v>0.66811210736681925</v>
       </c>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1814,10 +1893,17 @@
         <v>11</v>
       </c>
       <c r="T15" s="3">
+        <v>0.78479006333818369</v>
+      </c>
+      <c r="X15" s="2">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="Y15" s="3">
         <v>0.68557594968839686</v>
       </c>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1851,10 +1937,17 @@
         <v>12</v>
       </c>
       <c r="T16" s="3">
+        <v>0.77498508287134604</v>
+      </c>
+      <c r="X16" s="2">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Y16" s="3">
         <v>0.6851485124334683</v>
       </c>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1888,10 +1981,17 @@
         <v>13</v>
       </c>
       <c r="T17" s="3">
+        <v>0.76680506361277445</v>
+      </c>
+      <c r="X17" s="2">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="Y17" s="3">
         <v>0.62803686401783998</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1925,10 +2025,17 @@
         <v>14</v>
       </c>
       <c r="T18" s="3">
+        <v>0.79547860900348266</v>
+      </c>
+      <c r="X18" s="2">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="Y18" s="3">
         <v>0.69475380219944394</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1962,10 +2069,17 @@
         <v>15</v>
       </c>
       <c r="T19" s="3">
+        <v>0.80253923797160254</v>
+      </c>
+      <c r="X19" s="2">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="Y19" s="3">
         <v>0.66275212975079434</v>
       </c>
     </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1999,10 +2113,17 @@
         <v>16</v>
       </c>
       <c r="T20" s="3">
+        <v>0.75811037408550375</v>
+      </c>
+      <c r="X20" s="2">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="Y20" s="3">
         <v>0.66840503818741026</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2036,10 +2157,17 @@
         <v>17</v>
       </c>
       <c r="T21" s="3">
+        <v>0.80959496508752071</v>
+      </c>
+      <c r="X21" s="2">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="Y21" s="3">
         <v>0.64333505103013144</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2073,10 +2201,17 @@
         <v>18</v>
       </c>
       <c r="T22" s="3">
+        <v>0.78243223145681651</v>
+      </c>
+      <c r="X22" s="2">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="Y22" s="3">
         <v>0.69545562366911273</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2110,10 +2245,17 @@
         <v>19</v>
       </c>
       <c r="T23" s="3">
+        <v>0.79065531295771696</v>
+      </c>
+      <c r="X23" s="2">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="Y23" s="3">
         <v>0.68440236121772313</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2147,10 +2289,17 @@
         <v>20</v>
       </c>
       <c r="T24" s="3">
+        <v>0.75111177334431645</v>
+      </c>
+      <c r="X24" s="2">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="Y24" s="3">
         <v>0.66391507977526842</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C25" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2184,10 +2333,17 @@
         <v>21</v>
       </c>
       <c r="T25" s="3">
+        <v>0.7933349338637159</v>
+      </c>
+      <c r="X25" s="2">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="Y25" s="3">
         <v>0.66425350778334002</v>
       </c>
     </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C26" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2221,10 +2377,17 @@
         <v>22</v>
       </c>
       <c r="T26" s="3">
+        <v>0.7431987341233699</v>
+      </c>
+      <c r="X26" s="2">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="Y26" s="3">
         <v>0.718111569087034</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2258,10 +2421,17 @@
         <v>23</v>
       </c>
       <c r="T27" s="3">
+        <v>0.80481897041530459</v>
+      </c>
+      <c r="X27" s="2">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="Y27" s="3">
         <v>0.58926158900661996</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C28" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2295,10 +2465,17 @@
         <v>24</v>
       </c>
       <c r="T28" s="3">
+        <v>0.77831347161363618</v>
+      </c>
+      <c r="X28" s="2">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="Y28" s="3">
         <v>0.6880634305504858</v>
       </c>
     </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2332,10 +2509,17 @@
         <v>25</v>
       </c>
       <c r="T29" s="3">
+        <v>0.73250447421016152</v>
+      </c>
+      <c r="X29" s="2">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="Y29" s="3">
         <v>0.66240162760884957</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C30" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2369,10 +2553,17 @@
         <v>26</v>
       </c>
       <c r="T30" s="3">
+        <v>0.79928969776231029</v>
+      </c>
+      <c r="X30" s="2">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="Y30" s="3">
         <v>0.62962520878089356</v>
       </c>
     </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2406,10 +2597,17 @@
         <v>27</v>
       </c>
       <c r="T31" s="3">
+        <v>0.80145040301035131</v>
+      </c>
+      <c r="X31" s="2">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="Y31" s="3">
         <v>0.70429496117698243</v>
       </c>
     </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2443,10 +2641,17 @@
         <v>28</v>
       </c>
       <c r="T32" s="3">
+        <v>0.79203197789581958</v>
+      </c>
+      <c r="X32" s="2">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="Y32" s="3">
         <v>0.73460558179431357</v>
       </c>
     </row>
-    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2480,10 +2685,17 @@
         <v>29</v>
       </c>
       <c r="T33" s="3">
+        <v>0.74549347792987275</v>
+      </c>
+      <c r="X33" s="2">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="Y33" s="3">
         <v>0.6695388415189456</v>
       </c>
     </row>
-    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2517,10 +2729,17 @@
         <v>30</v>
       </c>
       <c r="T34" s="3">
+        <v>0.78356932624316888</v>
+      </c>
+      <c r="X34" s="2">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="Y34" s="3">
         <v>0.68027852618929274</v>
       </c>
     </row>
-    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2554,10 +2773,17 @@
         <v>31</v>
       </c>
       <c r="T35" s="3">
+        <v>0.78165766235738088</v>
+      </c>
+      <c r="X35" s="2">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="Y35" s="3">
         <v>0.6993139246063016</v>
       </c>
     </row>
-    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2591,10 +2817,17 @@
         <v>32</v>
       </c>
       <c r="T36" s="3">
+        <v>0.8129048890288546</v>
+      </c>
+      <c r="X36" s="2">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="Y36" s="3">
         <v>0.72318087625019356</v>
       </c>
     </row>
-    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2628,10 +2861,17 @@
         <v>33</v>
       </c>
       <c r="T37" s="3">
+        <v>0.80361307339161958</v>
+      </c>
+      <c r="X37" s="2">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="Y37" s="3">
         <v>0.67643500801796064</v>
       </c>
     </row>
-    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2665,10 +2905,17 @@
         <v>34</v>
       </c>
       <c r="T38" s="3">
+        <v>0.77850151482103791</v>
+      </c>
+      <c r="X38" s="2">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="Y38" s="3">
         <v>0.63680085907475925</v>
       </c>
     </row>
-    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2702,10 +2949,17 @@
         <v>35</v>
       </c>
       <c r="T39" s="3">
+        <v>0.76357957335404536</v>
+      </c>
+      <c r="X39" s="2">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="Y39" s="3">
         <v>0.75748717948567634</v>
       </c>
     </row>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2739,10 +2993,17 @@
         <v>36</v>
       </c>
       <c r="T40" s="3">
+        <v>0.82719591105098256</v>
+      </c>
+      <c r="X40" s="2">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="Y40" s="3">
         <v>0.6527747799660627</v>
       </c>
     </row>
-    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2776,10 +3037,17 @@
         <v>37</v>
       </c>
       <c r="T41" s="3">
+        <v>0.78768718630391255</v>
+      </c>
+      <c r="X41" s="2">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="Y41" s="3">
         <v>0.67055880848726712</v>
       </c>
     </row>
-    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2813,10 +3081,17 @@
         <v>38</v>
       </c>
       <c r="T42" s="3">
+        <v>0.80721891304325188</v>
+      </c>
+      <c r="X42" s="2">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="Y42" s="3">
         <v>0.62658464583364371</v>
       </c>
     </row>
-    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2850,10 +3125,17 @@
         <v>39</v>
       </c>
       <c r="T43" s="3">
+        <v>0.80684801694652231</v>
+      </c>
+      <c r="X43" s="2">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="Y43" s="3">
         <v>0.70583496249645283</v>
       </c>
     </row>
-    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C44" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2887,10 +3169,17 @@
         <v>40</v>
       </c>
       <c r="T44" s="3">
+        <v>0.77865927003954072</v>
+      </c>
+      <c r="X44" s="2">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="Y44" s="3">
         <v>0.65343318008461004</v>
       </c>
     </row>
-    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C45" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2924,10 +3213,17 @@
         <v>41</v>
       </c>
       <c r="T45" s="3">
+        <v>0.78440058195670237</v>
+      </c>
+      <c r="X45" s="2">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="Y45" s="3">
         <v>0.63720884986360993</v>
       </c>
     </row>
-    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C46" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2961,10 +3257,17 @@
         <v>42</v>
       </c>
       <c r="T46" s="3">
+        <v>0.77517757569569157</v>
+      </c>
+      <c r="X46" s="2">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="Y46" s="3">
         <v>0.7059213929907977</v>
       </c>
     </row>
-    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C47" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2998,10 +3301,17 @@
         <v>43</v>
       </c>
       <c r="T47" s="3">
+        <v>0.73172178530723397</v>
+      </c>
+      <c r="X47" s="2">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="Y47" s="3">
         <v>0.62604470493530884</v>
       </c>
     </row>
-    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C48" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3035,10 +3345,17 @@
         <v>44</v>
       </c>
       <c r="T48" s="3">
+        <v>0.78739711178736771</v>
+      </c>
+      <c r="X48" s="2">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="Y48" s="3">
         <v>0.66627333730157168</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3072,10 +3389,17 @@
         <v>45</v>
       </c>
       <c r="T49" s="3">
+        <v>0.76981245439444945</v>
+      </c>
+      <c r="X49" s="2">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="Y49" s="3">
         <v>0.66292406711079277</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3109,10 +3433,17 @@
         <v>46</v>
       </c>
       <c r="T50" s="3">
+        <v>0.74310584214061914</v>
+      </c>
+      <c r="X50" s="2">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="Y50" s="3">
         <v>0.65075574089508481</v>
       </c>
     </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3146,10 +3477,17 @@
         <v>47</v>
       </c>
       <c r="T51" s="3">
+        <v>0.80322037948211167</v>
+      </c>
+      <c r="X51" s="2">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="Y51" s="3">
         <v>0.70793932329002096</v>
       </c>
     </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3183,10 +3521,17 @@
         <v>48</v>
       </c>
       <c r="T52" s="3">
+        <v>0.78192280972213579</v>
+      </c>
+      <c r="X52" s="2">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="Y52" s="3">
         <v>0.68647072570056089</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3220,10 +3565,17 @@
         <v>49</v>
       </c>
       <c r="T53" s="3">
+        <v>0.74027177131612953</v>
+      </c>
+      <c r="X53" s="2">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="Y53" s="3">
         <v>0.66932989478909277</v>
       </c>
     </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3257,10 +3609,17 @@
         <v>50</v>
       </c>
       <c r="T54" s="3">
+        <v>0.77066450762997896</v>
+      </c>
+      <c r="X54" s="2">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="Y54" s="3">
         <v>0.72746954695321864</v>
       </c>
     </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C56" s="2" t="s">
         <v>3</v>
       </c>
@@ -3296,10 +3655,17 @@
       </c>
       <c r="T56" s="3">
         <f>AVERAGE(T5:T54)</f>
+        <v>0.77970641288442966</v>
+      </c>
+      <c r="X56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y56" s="3">
+        <f>AVERAGE(Y5:Y54)</f>
         <v>0.67827612251550418</v>
       </c>
     </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C57" s="2" t="s">
         <v>4</v>
       </c>
@@ -3335,6 +3701,13 @@
       </c>
       <c r="T57" s="3">
         <f>_xlfn.STDEV.S(T5:T54)</f>
+        <v>2.4509800244337382E-2</v>
+      </c>
+      <c r="X57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y57" s="3">
+        <f>_xlfn.STDEV.S(Y5:Y54)</f>
         <v>3.4003288288829397E-2</v>
       </c>
     </row>

--- a/migforecasting/underground/tests on superdataset/test-22.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="r2" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="17">
   <si>
     <t>Random Forest-100 (superdataset-24-f 3Ysum.csv)</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>Random Forest-100 (superdataset-24-f.csv)</t>
-  </si>
-  <si>
-    <t>Random Forest-100 (superdataset-24-f.csv + extrapol)</t>
   </si>
   <si>
     <t>train (MAE)</t>
@@ -307,7 +304,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1366,7 +1362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:Y67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U71" sqref="U71"/>
     </sheetView>
   </sheetViews>
@@ -1386,14 +1382,14 @@
       </c>
       <c r="J3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="1"/>
       <c r="S3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="3:25" x14ac:dyDescent="0.25">
@@ -3714,18 +3710,18 @@
     <row r="66" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="H66" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="67" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E67" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F67" s="4">
         <v>0.39578134698910605</v>
@@ -3746,10 +3742,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:J58"/>
+  <dimension ref="C4:R58"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:I58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T46" sqref="T46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3759,30 +3755,44 @@
     <col min="9" max="9" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <v>1</v>
       </c>
@@ -3798,8 +3808,20 @@
       <c r="I6" s="3">
         <v>161.41076086956519</v>
       </c>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
+        <v>136.70759661835751</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3">
+        <v>175.40111111111111</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <f>C6+1</f>
         <v>2</v>
@@ -3817,8 +3839,22 @@
       <c r="I7" s="3">
         <v>170.72165458937201</v>
       </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L7" s="2">
+        <f>L6+1</f>
+        <v>2</v>
+      </c>
+      <c r="M7" s="3">
+        <v>140.02938405797099</v>
+      </c>
+      <c r="Q7" s="2">
+        <f>Q6+1</f>
+        <v>2</v>
+      </c>
+      <c r="R7" s="3">
+        <v>173.74491545893719</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <f t="shared" ref="C8:C55" si="0">C7+1</f>
         <v>3</v>
@@ -3836,8 +3872,22 @@
       <c r="I8" s="3">
         <v>169.05725845410629</v>
       </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L8" s="2">
+        <f t="shared" ref="L8:L55" si="2">L7+1</f>
+        <v>3</v>
+      </c>
+      <c r="M8" s="3">
+        <v>142.045652173913</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" ref="Q8:Q55" si="3">Q7+1</f>
+        <v>3</v>
+      </c>
+      <c r="R8" s="3">
+        <v>170.24463768115939</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3855,8 +3905,22 @@
       <c r="I9" s="3">
         <v>169.2183574879227</v>
       </c>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L9" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
+        <v>133.6248792270531</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="R9" s="3">
+        <v>182.6750845410628</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3874,8 +3938,22 @@
       <c r="I10" s="3">
         <v>167.65380434782611</v>
       </c>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L10" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
+        <v>133.76469806763279</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
+        <v>178.014347826087</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3893,8 +3971,22 @@
       <c r="I11" s="3">
         <v>163.02039855072471</v>
       </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L11" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M11" s="3">
+        <v>147.3374033816425</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="R11" s="3">
+        <v>171.23444444444439</v>
+      </c>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3912,8 +4004,22 @@
       <c r="I12" s="3">
         <v>149.8863768115942</v>
       </c>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L12" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="M12" s="3">
+        <v>139.13904589371981</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="R12" s="3">
+        <v>172.37805555555559</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3931,8 +4037,22 @@
       <c r="I13" s="3">
         <v>178.87368357487921</v>
       </c>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L13" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="M13" s="3">
+        <v>139.21859903381639</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="R13" s="3">
+        <v>175.25079710144931</v>
+      </c>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3950,8 +4070,22 @@
       <c r="I14" s="3">
         <v>163.9604347826087</v>
       </c>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L14" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="M14" s="3">
+        <v>143.0381763285024</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="R14" s="3">
+        <v>168.70277777777781</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3969,8 +4103,22 @@
       <c r="I15" s="3">
         <v>153.43497584541061</v>
       </c>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L15" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="M15" s="3">
+        <v>132.77280193236709</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="R15" s="3">
+        <v>162.73210144927529</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3988,8 +4136,22 @@
       <c r="I16" s="3">
         <v>171.4710144927536</v>
       </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L16" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="M16" s="3">
+        <v>136.1197101449275</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="R16" s="3">
+        <v>163.2378623188406</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4007,8 +4169,22 @@
       <c r="I17" s="3">
         <v>161.57458937198069</v>
       </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L17" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="M17" s="3">
+        <v>140.01830917874389</v>
+      </c>
+      <c r="Q17" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="R17" s="3">
+        <v>179.8404468599033</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4026,8 +4202,22 @@
       <c r="I18" s="3">
         <v>148.18339371980679</v>
       </c>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L18" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="M18" s="3">
+        <v>125.62954106280191</v>
+      </c>
+      <c r="Q18" s="2">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="R18" s="3">
+        <v>171.29176328502419</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4045,8 +4235,22 @@
       <c r="I19" s="3">
         <v>156.32503623188401</v>
       </c>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L19" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="M19" s="3">
+        <v>136.0615458937198</v>
+      </c>
+      <c r="Q19" s="2">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="R19" s="3">
+        <v>171.01589371980671</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4064,8 +4268,22 @@
       <c r="I20" s="3">
         <v>154.69625603864731</v>
       </c>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L20" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="M20" s="3">
+        <v>127.596497584541</v>
+      </c>
+      <c r="Q20" s="2">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="R20" s="3">
+        <v>173.1496739130435</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4083,8 +4301,22 @@
       <c r="I21" s="3">
         <v>171.17892512077299</v>
       </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L21" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="M21" s="3">
+        <v>132.5337198067632</v>
+      </c>
+      <c r="Q21" s="2">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="R21" s="3">
+        <v>164.96619565217389</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4102,8 +4334,22 @@
       <c r="I22" s="3">
         <v>167.50489130434781</v>
       </c>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L22" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="M22" s="3">
+        <v>132.74778985507251</v>
+      </c>
+      <c r="Q22" s="2">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="R22" s="3">
+        <v>164.50392512077289</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4121,8 +4367,22 @@
       <c r="I23" s="3">
         <v>162.57105072463759</v>
       </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L23" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="M23" s="3">
+        <v>143.7239855072464</v>
+      </c>
+      <c r="Q23" s="2">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="R23" s="3">
+        <v>173.57710144927529</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4140,8 +4400,22 @@
       <c r="I24" s="3">
         <v>172.7525724637681</v>
       </c>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L24" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="M24" s="3">
+        <v>140.0293719806763</v>
+      </c>
+      <c r="Q24" s="2">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="R24" s="3">
+        <v>174.46756038647339</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C25" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4159,8 +4433,22 @@
       <c r="I25" s="3">
         <v>155.23010869565209</v>
       </c>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L25" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="M25" s="3">
+        <v>138.0535628019324</v>
+      </c>
+      <c r="Q25" s="2">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="R25" s="3">
+        <v>168.93818840579709</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C26" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4178,8 +4466,22 @@
       <c r="I26" s="3">
         <v>167.39851449275361</v>
       </c>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L26" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="M26" s="3">
+        <v>137.1313405797101</v>
+      </c>
+      <c r="Q26" s="2">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="R26" s="3">
+        <v>166.5542753623188</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4197,8 +4499,22 @@
       <c r="I27" s="3">
         <v>157.68577294685991</v>
       </c>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L27" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="M27" s="3">
+        <v>143.0036111111111</v>
+      </c>
+      <c r="Q27" s="2">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="R27" s="3">
+        <v>184.00688405797101</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C28" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4216,8 +4532,22 @@
       <c r="I28" s="3">
         <v>154.04536231884049</v>
       </c>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L28" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="M28" s="3">
+        <v>130.3520893719807</v>
+      </c>
+      <c r="Q28" s="2">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="R28" s="3">
+        <v>172.6961835748792</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4235,8 +4565,22 @@
       <c r="I29" s="3">
         <v>159.85096618357491</v>
       </c>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L29" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="M29" s="3">
+        <v>138.08850241545889</v>
+      </c>
+      <c r="Q29" s="2">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="R29" s="3">
+        <v>171.40257246376811</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C30" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4254,8 +4598,22 @@
       <c r="I30" s="3">
         <v>158.20126811594201</v>
       </c>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L30" s="2">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="M30" s="3">
+        <v>137.84788647343001</v>
+      </c>
+      <c r="Q30" s="2">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="R30" s="3">
+        <v>177.9841062801932</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4273,8 +4631,22 @@
       <c r="I31" s="3">
         <v>154.33900966183569</v>
       </c>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L31" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="M31" s="3">
+        <v>136.52646135265701</v>
+      </c>
+      <c r="Q31" s="2">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="R31" s="3">
+        <v>180.81083333333331</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4292,8 +4664,22 @@
       <c r="I32" s="3">
         <v>161.0711835748792</v>
       </c>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L32" s="2">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="M32" s="3">
+        <v>141.22724637681159</v>
+      </c>
+      <c r="Q32" s="2">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="R32" s="3">
+        <v>168.43998792270531</v>
+      </c>
+    </row>
+    <row r="33" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4311,8 +4697,22 @@
       <c r="I33" s="3">
         <v>163.24235507246371</v>
       </c>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L33" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="M33" s="3">
+        <v>135.13685990338161</v>
+      </c>
+      <c r="Q33" s="2">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="R33" s="3">
+        <v>180.3971739130435</v>
+      </c>
+    </row>
+    <row r="34" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4330,8 +4730,22 @@
       <c r="I34" s="3">
         <v>163.75589371980681</v>
       </c>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L34" s="2">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="M34" s="3">
+        <v>133.108115942029</v>
+      </c>
+      <c r="Q34" s="2">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="R34" s="3">
+        <v>189.67414251207731</v>
+      </c>
+    </row>
+    <row r="35" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4349,8 +4763,22 @@
       <c r="I35" s="3">
         <v>166.74888888888881</v>
       </c>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L35" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="M35" s="3">
+        <v>128.33978260869571</v>
+      </c>
+      <c r="Q35" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="R35" s="3">
+        <v>174.24764492753619</v>
+      </c>
+    </row>
+    <row r="36" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4368,8 +4796,22 @@
       <c r="I36" s="3">
         <v>161.33194444444439</v>
       </c>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L36" s="2">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="M36" s="3">
+        <v>135.25376811594199</v>
+      </c>
+      <c r="Q36" s="2">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="R36" s="3">
+        <v>177.53225845410631</v>
+      </c>
+    </row>
+    <row r="37" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4387,8 +4829,22 @@
       <c r="I37" s="3">
         <v>164.9084541062802</v>
       </c>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L37" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="M37" s="3">
+        <v>137.0328260869565</v>
+      </c>
+      <c r="Q37" s="2">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="R37" s="3">
+        <v>175.7901690821256</v>
+      </c>
+    </row>
+    <row r="38" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4406,8 +4862,22 @@
       <c r="I38" s="3">
         <v>148.26419082125599</v>
       </c>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L38" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="M38" s="3">
+        <v>136.23909420289851</v>
+      </c>
+      <c r="Q38" s="2">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="R38" s="3">
+        <v>179.449154589372</v>
+      </c>
+    </row>
+    <row r="39" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4425,8 +4895,22 @@
       <c r="I39" s="3">
         <v>161.17509661835749</v>
       </c>
-    </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L39" s="2">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="M39" s="3">
+        <v>127.33426328502421</v>
+      </c>
+      <c r="Q39" s="2">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="R39" s="3">
+        <v>177.91080917874399</v>
+      </c>
+    </row>
+    <row r="40" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4444,8 +4928,22 @@
       <c r="I40" s="3">
         <v>158.97851449275359</v>
       </c>
-    </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L40" s="2">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="M40" s="3">
+        <v>133.75925120772951</v>
+      </c>
+      <c r="Q40" s="2">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="R40" s="3">
+        <v>168.48219806763279</v>
+      </c>
+    </row>
+    <row r="41" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4463,8 +4961,22 @@
       <c r="I41" s="3">
         <v>159.90434782608691</v>
       </c>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L41" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="M41" s="3">
+        <v>134.3876690821256</v>
+      </c>
+      <c r="Q41" s="2">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="R41" s="3">
+        <v>171.91788647342989</v>
+      </c>
+    </row>
+    <row r="42" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4482,8 +4994,22 @@
       <c r="I42" s="3">
         <v>167.97318840579709</v>
       </c>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L42" s="2">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="M42" s="3">
+        <v>147.03033816425119</v>
+      </c>
+      <c r="Q42" s="2">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="R42" s="3">
+        <v>171.7970169082125</v>
+      </c>
+    </row>
+    <row r="43" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4501,8 +5027,22 @@
       <c r="I43" s="3">
         <v>148.5637439613526</v>
       </c>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L43" s="2">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="M43" s="3">
+        <v>130.38921497584539</v>
+      </c>
+      <c r="Q43" s="2">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="R43" s="3">
+        <v>176.54682367149761</v>
+      </c>
+    </row>
+    <row r="44" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C44" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4520,8 +5060,22 @@
       <c r="I44" s="3">
         <v>156.00725845410631</v>
       </c>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L44" s="2">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="M44" s="3">
+        <v>134.8178260869565</v>
+      </c>
+      <c r="Q44" s="2">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="R44" s="3">
+        <v>174.96882850241539</v>
+      </c>
+    </row>
+    <row r="45" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C45" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4539,8 +5093,22 @@
       <c r="I45" s="3">
         <v>162.09408212560379</v>
       </c>
-    </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L45" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="M45" s="3">
+        <v>142.17863526570051</v>
+      </c>
+      <c r="Q45" s="2">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="R45" s="3">
+        <v>164.4500362318841</v>
+      </c>
+    </row>
+    <row r="46" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C46" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4558,8 +5126,22 @@
       <c r="I46" s="3">
         <v>165.0507125603865</v>
       </c>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L46" s="2">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="M46" s="3">
+        <v>136.1986835748792</v>
+      </c>
+      <c r="Q46" s="2">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="R46" s="3">
+        <v>172.8576449275362</v>
+      </c>
+    </row>
+    <row r="47" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C47" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4577,8 +5159,22 @@
       <c r="I47" s="3">
         <v>150.6809661835749</v>
       </c>
-    </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L47" s="2">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="M47" s="3">
+        <v>132.6260144927536</v>
+      </c>
+      <c r="Q47" s="2">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="R47" s="3">
+        <v>173.67827294685989</v>
+      </c>
+    </row>
+    <row r="48" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C48" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4596,8 +5192,22 @@
       <c r="I48" s="3">
         <v>165.59160628019319</v>
       </c>
-    </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L48" s="2">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="M48" s="3">
+        <v>132.69594202898551</v>
+      </c>
+      <c r="Q48" s="2">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="R48" s="3">
+        <v>169.04617149758451</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -4615,8 +5225,22 @@
       <c r="I49" s="3">
         <v>148.0270531400966</v>
       </c>
-    </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L49" s="2">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="M49" s="3">
+        <v>137.0407729468599</v>
+      </c>
+      <c r="Q49" s="2">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="R49" s="3">
+        <v>170.13746376811591</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -4634,8 +5258,22 @@
       <c r="I50" s="3">
         <v>165.87092995169081</v>
       </c>
-    </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L50" s="2">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="M50" s="3">
+        <v>140.53869565217391</v>
+      </c>
+      <c r="Q50" s="2">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="R50" s="3">
+        <v>169.9873913043478</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -4653,8 +5291,22 @@
       <c r="I51" s="3">
         <v>154.17257246376809</v>
       </c>
-    </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L51" s="2">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="M51" s="3">
+        <v>145.40161835748791</v>
+      </c>
+      <c r="Q51" s="2">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="R51" s="3">
+        <v>172.4535265700483</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -4672,8 +5324,22 @@
       <c r="I52" s="3">
         <v>160.0499637681159</v>
       </c>
-    </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L52" s="2">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="M52" s="3">
+        <v>140.2756642512077</v>
+      </c>
+      <c r="Q52" s="2">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="R52" s="3">
+        <v>171.868538647343</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4691,8 +5357,22 @@
       <c r="I53" s="3">
         <v>161.58518115942019</v>
       </c>
-    </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L53" s="2">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="M53" s="3">
+        <v>140.66734299516909</v>
+      </c>
+      <c r="Q53" s="2">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="R53" s="3">
+        <v>173.8005917874396</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -4710,8 +5390,22 @@
       <c r="I54" s="3">
         <v>165.24718599033821</v>
       </c>
-    </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L54" s="2">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="M54" s="3">
+        <v>132.01683574879229</v>
+      </c>
+      <c r="Q54" s="2">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="R54" s="3">
+        <v>168.48443236714971</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C55" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -4729,8 +5423,22 @@
       <c r="I55" s="3">
         <v>164.29437198067629</v>
       </c>
-    </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L55" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="M55" s="3">
+        <v>140.04112318840581</v>
+      </c>
+      <c r="Q55" s="2">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="R55" s="3">
+        <v>168.7614009661836</v>
+      </c>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C57" s="2" t="s">
         <v>3</v>
       </c>
@@ -4749,8 +5457,22 @@
         <f>AVERAGE(I6:I55)</f>
         <v>161.29672246376811</v>
       </c>
-    </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3">
+        <f>AVERAGE(M6:M55)</f>
+        <v>136.73759492753624</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3">
+        <f>AVERAGE(R6:R55)</f>
+        <v>173.03002608695641</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C58" s="2" t="s">
         <v>4</v>
       </c>
@@ -4768,6 +5490,20 @@
       <c r="I58" s="3">
         <f>_xlfn.STDEV.S(I6:I55)</f>
         <v>7.0858568587077295</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3">
+        <f>_xlfn.STDEV.S(M6:M55)</f>
+        <v>4.9685652830725484</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3">
+        <f>_xlfn.STDEV.S(R6:R55)</f>
+        <v>5.4522627493806421</v>
       </c>
     </row>
   </sheetData>
@@ -4777,41 +5513,57 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:J57"/>
+  <dimension ref="C3:S57"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="T58" sqref="T58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="19" max="19" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C5" s="2">
         <v>1</v>
       </c>
@@ -4827,8 +5579,20 @@
       <c r="J5" s="3">
         <v>49265.02857741544</v>
       </c>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>53910.977389492742</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
+      <c r="S5" s="3">
+        <v>51875.868436784498</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <f>C5+1</f>
         <v>2</v>
@@ -4846,8 +5610,22 @@
       <c r="J6" s="3">
         <v>58818.56247403381</v>
       </c>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M6" s="2">
+        <f>M5+1</f>
+        <v>2</v>
+      </c>
+      <c r="N6" s="3">
+        <v>50096.715575362308</v>
+      </c>
+      <c r="R6" s="2">
+        <f>R5+1</f>
+        <v>2</v>
+      </c>
+      <c r="S6" s="3">
+        <v>64691.070999083473</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <f t="shared" ref="C7:C54" si="0">C6+1</f>
         <v>3</v>
@@ -4865,8 +5643,22 @@
       <c r="J7" s="3">
         <v>67195.467338888877</v>
       </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M7" s="2">
+        <f t="shared" ref="M7:M54" si="2">M6+1</f>
+        <v>3</v>
+      </c>
+      <c r="N7" s="3">
+        <v>35222.748448067621</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" ref="R7:R54" si="3">R6+1</f>
+        <v>3</v>
+      </c>
+      <c r="S7" s="3">
+        <v>60342.089596449303</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4884,8 +5676,22 @@
       <c r="J8" s="3">
         <v>64619.240849879207</v>
       </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M8" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N8" s="3">
+        <v>47993.271027294657</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="S8" s="3">
+        <v>53015.208518599778</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4903,8 +5709,22 @@
       <c r="J9" s="3">
         <v>70697.206387318831</v>
       </c>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M9" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
+        <v>44127.120558454088</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
+        <v>54005.016730642987</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4922,8 +5742,22 @@
       <c r="J10" s="3">
         <v>55316.314691666666</v>
       </c>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M10" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N10" s="3">
+        <v>46044.093117753611</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="S10" s="3">
+        <v>54391.509194337334</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4941,8 +5775,22 @@
       <c r="J11" s="3">
         <v>58087.232233574883</v>
       </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M11" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="N11" s="3">
+        <v>44652.600970531377</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="S11" s="3">
+        <v>50739.52756912091</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4960,8 +5808,22 @@
       <c r="J12" s="3">
         <v>63662.201225120771</v>
       </c>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M12" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="N12" s="3">
+        <v>48462.159571618336</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="S12" s="3">
+        <v>49668.268324245102</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4979,8 +5841,22 @@
       <c r="J13" s="3">
         <v>78609.464918115933</v>
       </c>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M13" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="N13" s="3">
+        <v>53709.71522971012</v>
+      </c>
+      <c r="R13" s="2">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="S13" s="3">
+        <v>67945.891409653457</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4998,8 +5874,22 @@
       <c r="J14" s="3">
         <v>86002.54880905796</v>
       </c>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M14" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
+        <v>46608.68287463767</v>
+      </c>
+      <c r="R14" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="S14" s="3">
+        <v>39394.287381967653</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5017,8 +5907,22 @@
       <c r="J15" s="3">
         <v>53541.947813164239</v>
       </c>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M15" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="N15" s="3">
+        <v>38590.6025874396</v>
+      </c>
+      <c r="R15" s="2">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="S15" s="3">
+        <v>37001.903844913402</v>
+      </c>
+    </row>
+    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5036,8 +5940,22 @@
       <c r="J16" s="3">
         <v>84907.677460627994</v>
       </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M16" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="N16" s="3">
+        <v>45850.156096497572</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="S16" s="3">
+        <v>47182.200336334347</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5055,8 +5973,22 @@
       <c r="J17" s="3">
         <v>48716.238712318853</v>
       </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M17" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="N17" s="3">
+        <v>45611.040309420277</v>
+      </c>
+      <c r="R17" s="2">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="S17" s="3">
+        <v>58915.237777282557</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5074,8 +6006,22 @@
       <c r="J18" s="3">
         <v>83958.841392512055</v>
       </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M18" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="N18" s="3">
+        <v>42803.785097222208</v>
+      </c>
+      <c r="R18" s="2">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="S18" s="3">
+        <v>46508.906289655293</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5093,8 +6039,22 @@
       <c r="J19" s="3">
         <v>66318.721190821248</v>
       </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M19" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="N19" s="3">
+        <v>47706.269455917864</v>
+      </c>
+      <c r="R19" s="2">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="S19" s="3">
+        <v>50463.687165522111</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5112,8 +6072,22 @@
       <c r="J20" s="3">
         <v>59651.60401485506</v>
       </c>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M20" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="N20" s="3">
+        <v>55071.717099396141</v>
+      </c>
+      <c r="R20" s="2">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="S20" s="3">
+        <v>50870.243545682737</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5131,8 +6105,22 @@
       <c r="J21" s="3">
         <v>61687.480739855069</v>
       </c>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M21" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="N21" s="3">
+        <v>42209.511441545903</v>
+      </c>
+      <c r="R21" s="2">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="S21" s="3">
+        <v>48758.36190407924</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5150,8 +6138,22 @@
       <c r="J22" s="3">
         <v>61370.274874879229</v>
       </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M22" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N22" s="3">
+        <v>49682.020270289853</v>
+      </c>
+      <c r="R22" s="2">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="S22" s="3">
+        <v>46995.349998626691</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5169,8 +6171,22 @@
       <c r="J23" s="3">
         <v>58349.785063768111</v>
       </c>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M23" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="N23" s="3">
+        <v>49311.683922463752</v>
+      </c>
+      <c r="R23" s="2">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="S23" s="3">
+        <v>45119.543824336732</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5188,8 +6204,22 @@
       <c r="J24" s="3">
         <v>59990.995209541063</v>
       </c>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M24" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="N24" s="3">
+        <v>39064.704778140083</v>
+      </c>
+      <c r="R24" s="2">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="S24" s="3">
+        <v>48924.627324134563</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C25" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5207,8 +6237,22 @@
       <c r="J25" s="3">
         <v>66750.486900120755</v>
       </c>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M25" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="N25" s="3">
+        <v>41983.070560990323</v>
+      </c>
+      <c r="R25" s="2">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="S25" s="3">
+        <v>46399.91797375866</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C26" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5226,8 +6270,22 @@
       <c r="J26" s="3">
         <v>64229.607232850227</v>
       </c>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M26" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="N26" s="3">
+        <v>56149.619405072437</v>
+      </c>
+      <c r="R26" s="2">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="S26" s="3">
+        <v>50490.519259552108</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5245,8 +6303,22 @@
       <c r="J27" s="3">
         <v>69500.707875724635</v>
       </c>
-    </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M27" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="N27" s="3">
+        <v>43317.098553502386</v>
+      </c>
+      <c r="R27" s="2">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="S27" s="3">
+        <v>53559.855748880203</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C28" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5264,8 +6336,22 @@
       <c r="J28" s="3">
         <v>67283.689593719799</v>
       </c>
-    </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M28" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="N28" s="3">
+        <v>47764.68925603864</v>
+      </c>
+      <c r="R28" s="2">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="S28" s="3">
+        <v>43074.331757529821</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5283,8 +6369,22 @@
       <c r="J29" s="3">
         <v>68335.842050241525</v>
       </c>
-    </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M29" s="2">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="N29" s="3">
+        <v>47005.041559057943</v>
+      </c>
+      <c r="R29" s="2">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="S29" s="3">
+        <v>56117.888980566633</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C30" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5302,8 +6402,22 @@
       <c r="J30" s="3">
         <v>55890.426562318818</v>
       </c>
-    </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M30" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="N30" s="3">
+        <v>51930.882647584527</v>
+      </c>
+      <c r="R30" s="2">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="S30" s="3">
+        <v>54219.839363860003</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5321,8 +6435,22 @@
       <c r="J31" s="3">
         <v>63175.939701328498</v>
       </c>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M31" s="2">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="N31" s="3">
+        <v>54694.252778985508</v>
+      </c>
+      <c r="R31" s="2">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="S31" s="3">
+        <v>52610.924559969222</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5340,8 +6468,22 @@
       <c r="J32" s="3">
         <v>88029.787996980667</v>
       </c>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M32" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="N32" s="3">
+        <v>44476.25490277775</v>
+      </c>
+      <c r="R32" s="2">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="S32" s="3">
+        <v>48534.802813587339</v>
+      </c>
+    </row>
+    <row r="33" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5359,8 +6501,22 @@
       <c r="J33" s="3">
         <v>68119.972467270505</v>
       </c>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M33" s="2">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="N33" s="3">
+        <v>45825.90305362318</v>
+      </c>
+      <c r="R33" s="2">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="S33" s="3">
+        <v>41864.871287628681</v>
+      </c>
+    </row>
+    <row r="34" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5378,8 +6534,22 @@
       <c r="J34" s="3">
         <v>61230.218525724638</v>
       </c>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M34" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="N34" s="3">
+        <v>40826.333127173893</v>
+      </c>
+      <c r="R34" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="S34" s="3">
+        <v>65502.154122808854</v>
+      </c>
+    </row>
+    <row r="35" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5397,8 +6567,22 @@
       <c r="J35" s="3">
         <v>51018.586872463748</v>
       </c>
-    </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M35" s="2">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="N35" s="3">
+        <v>43269.059705555548</v>
+      </c>
+      <c r="R35" s="2">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="S35" s="3">
+        <v>55524.648831448067</v>
+      </c>
+    </row>
+    <row r="36" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5416,8 +6600,22 @@
       <c r="J36" s="3">
         <v>73380.912309541032</v>
       </c>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M36" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="N36" s="3">
+        <v>48590.220545289849</v>
+      </c>
+      <c r="R36" s="2">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="S36" s="3">
+        <v>41958.779657213578</v>
+      </c>
+    </row>
+    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5435,8 +6633,22 @@
       <c r="J37" s="3">
         <v>71240.693789130426</v>
       </c>
-    </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M37" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="N37" s="3">
+        <v>50665.984278019299</v>
+      </c>
+      <c r="R37" s="2">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="S37" s="3">
+        <v>48439.636464640913</v>
+      </c>
+    </row>
+    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5454,8 +6666,22 @@
       <c r="J38" s="3">
         <v>75293.082444202868</v>
       </c>
-    </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M38" s="2">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="N38" s="3">
+        <v>43188.038527777768</v>
+      </c>
+      <c r="R38" s="2">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="S38" s="3">
+        <v>41774.383424675761</v>
+      </c>
+    </row>
+    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5473,8 +6699,22 @@
       <c r="J39" s="3">
         <v>84220.349138164253</v>
       </c>
-    </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M39" s="2">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="N39" s="3">
+        <v>46723.236136352643</v>
+      </c>
+      <c r="R39" s="2">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="S39" s="3">
+        <v>46083.620617546192</v>
+      </c>
+    </row>
+    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5492,8 +6732,22 @@
       <c r="J40" s="3">
         <v>60400.966858212538</v>
       </c>
-    </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M40" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="N40" s="3">
+        <v>41983.045774879211</v>
+      </c>
+      <c r="R40" s="2">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="S40" s="3">
+        <v>64541.491552849882</v>
+      </c>
+    </row>
+    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5511,8 +6765,22 @@
       <c r="J41" s="3">
         <v>47032.245040821261</v>
       </c>
-    </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M41" s="2">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="N41" s="3">
+        <v>44475.251282367128</v>
+      </c>
+      <c r="R41" s="2">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="S41" s="3">
+        <v>55292.1016839515</v>
+      </c>
+    </row>
+    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -5530,8 +6798,22 @@
       <c r="J42" s="3">
         <v>79065.172089492728</v>
       </c>
-    </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M42" s="2">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="N42" s="3">
+        <v>43919.014241908197</v>
+      </c>
+      <c r="R42" s="2">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="S42" s="3">
+        <v>43942.143110556914</v>
+      </c>
+    </row>
+    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -5549,8 +6831,22 @@
       <c r="J43" s="3">
         <v>65078.269603019311</v>
       </c>
-    </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M43" s="2">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="N43" s="3">
+        <v>49965.224176690812</v>
+      </c>
+      <c r="R43" s="2">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="S43" s="3">
+        <v>47519.832893276202</v>
+      </c>
+    </row>
+    <row r="44" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C44" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5568,8 +6864,22 @@
       <c r="J44" s="3">
         <v>65533.982240458943</v>
       </c>
-    </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M44" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="N44" s="3">
+        <v>45448.302644082098</v>
+      </c>
+      <c r="R44" s="2">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="S44" s="3">
+        <v>51280.705433691102</v>
+      </c>
+    </row>
+    <row r="45" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C45" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5587,8 +6897,22 @@
       <c r="J45" s="3">
         <v>54577.709866908197</v>
       </c>
-    </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M45" s="2">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="N45" s="3">
+        <v>57046.581365096623</v>
+      </c>
+      <c r="R45" s="2">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="S45" s="3">
+        <v>60483.145793939657</v>
+      </c>
+    </row>
+    <row r="46" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C46" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5606,8 +6930,22 @@
       <c r="J46" s="3">
         <v>57700.707534903369</v>
       </c>
-    </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M46" s="2">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="N46" s="3">
+        <v>51849.101043236718</v>
+      </c>
+      <c r="R46" s="2">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="S46" s="3">
+        <v>52859.041969879698</v>
+      </c>
+    </row>
+    <row r="47" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C47" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5625,8 +6963,22 @@
       <c r="J47" s="3">
         <v>61525.771995652169</v>
       </c>
-    </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M47" s="2">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="N47" s="3">
+        <v>47776.05933115942</v>
+      </c>
+      <c r="R47" s="2">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="S47" s="3">
+        <v>50501.068457475121</v>
+      </c>
+    </row>
+    <row r="48" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C48" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -5644,8 +6996,22 @@
       <c r="J48" s="3">
         <v>57627.736564613529</v>
       </c>
-    </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M48" s="2">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="N48" s="3">
+        <v>63866.519510024162</v>
+      </c>
+      <c r="R48" s="2">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="S48" s="3">
+        <v>51355.645710666337</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -5663,8 +7029,22 @@
       <c r="J49" s="3">
         <v>48210.813904830909</v>
       </c>
-    </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M49" s="2">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="N49" s="3">
+        <v>50267.479442874377</v>
+      </c>
+      <c r="R49" s="2">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="S49" s="3">
+        <v>38087.112146883279</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -5682,8 +7062,22 @@
       <c r="J50" s="3">
         <v>58273.119213526559</v>
       </c>
-    </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M50" s="2">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="N50" s="3">
+        <v>48853.398831521707</v>
+      </c>
+      <c r="R50" s="2">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="S50" s="3">
+        <v>57718.944803412727</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -5701,8 +7095,22 @@
       <c r="J51" s="3">
         <v>64539.421368236697</v>
       </c>
-    </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M51" s="2">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="N51" s="3">
+        <v>53105.532463888892</v>
+      </c>
+      <c r="R51" s="2">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="S51" s="3">
+        <v>47329.290768397732</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -5720,8 +7128,22 @@
       <c r="J52" s="3">
         <v>73643.358316062804</v>
       </c>
-    </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M52" s="2">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="N52" s="3">
+        <v>40680.08984927534</v>
+      </c>
+      <c r="R52" s="2">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="S52" s="3">
+        <v>51672.670017516917</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -5739,8 +7161,22 @@
       <c r="J53" s="3">
         <v>68843.376234903364</v>
       </c>
-    </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M53" s="2">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="N53" s="3">
+        <v>38670.934781763273</v>
+      </c>
+      <c r="R53" s="2">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="S53" s="3">
+        <v>35666.922797882537</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -5758,8 +7194,22 @@
       <c r="J54" s="3">
         <v>68915.139091787423</v>
       </c>
-    </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M54" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="N54" s="3">
+        <v>42767.607619927519</v>
+      </c>
+      <c r="R54" s="2">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="S54" s="3">
+        <v>39200.669572307619</v>
+      </c>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C56" s="2" t="s">
         <v>3</v>
       </c>
@@ -5778,8 +7228,22 @@
         <f>AVERAGE(J5:J54)</f>
         <v>64988.698547212553</v>
       </c>
-    </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N56" s="3">
+        <f>AVERAGE(N5:N54)</f>
+        <v>47076.26806435507</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S56" s="3">
+        <f>AVERAGE(S5:S54)</f>
+        <v>50408.315234956091</v>
+      </c>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C57" s="2" t="s">
         <v>4</v>
       </c>
@@ -5797,6 +7261,20 @@
       <c r="J57" s="3">
         <f>_xlfn.STDEV.S(J5:J54)</f>
         <v>10134.204813971275</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3">
+        <f>_xlfn.STDEV.S(N5:N54)</f>
+        <v>5443.0499555306624</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3">
+        <f>_xlfn.STDEV.S(S5:S54)</f>
+        <v>7375.3722008762497</v>
       </c>
     </row>
   </sheetData>

--- a/migforecasting/underground/tests on superdataset/test-22.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="r2" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="19">
   <si>
     <t>Random Forest-100 (superdataset-24-f 3Ysum.csv)</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>RF-100 (superdataset-24-f 2Y.csv + extrapol)</t>
+  </si>
+  <si>
+    <t>(second year * 3)</t>
+  </si>
+  <si>
+    <t>(third year * 3)</t>
   </si>
 </sst>
 </file>
@@ -125,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -135,6 +141,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -194,6 +204,10 @@
             <a:r>
               <a:rPr lang="ru-RU" sz="1400" baseline="0"/>
               <a:t> выборка</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" baseline="0"/>
+              <a:t> (R2)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400"/>
           </a:p>
@@ -304,6 +318,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -323,35 +338,41 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'r2'!$F$66:$H$66</c:f>
+              <c:f>'r2'!$G$66:$J$66</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>next year</c:v>
+                  <c:v>3 years sum</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3 years sum</c:v>
+                  <c:v>(next year * 3)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>(next year * 3)</c:v>
+                  <c:v>(second year * 3)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(third year * 3)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'r2'!$F$67:$H$67</c:f>
+              <c:f>'r2'!$G$67:$J$67</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.39578134698910605</c:v>
+                  <c:v>0.54227290669870076</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54227290669870076</c:v>
+                  <c:v>0.70141458420316483</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.70141458420316483</c:v>
+                  <c:v>0.77970641288442966</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67827612251550418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -498,7 +519,785 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Тестовая</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> выборка (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>MAE)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" cap="all" normalizeH="0" baseline="0">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mae!$F$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>mae!$G$63:$J$63</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3 years sum</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(next year * 3)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(second year * 3)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(third year * 3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mae!$G$64:$J$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>207.1667103864734</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>161.29672246376811</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136.73759492753624</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>173.03002608695641</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-99DA-4835-A326-5CC9F45556EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="1837935151"/>
+        <c:axId val="1837933487"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1837935151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1837933487"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1837933487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1837935151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Тестовая</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> выборка (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>MSE)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mse!$I$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>mse!$J$64:$M$64</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3 years sum</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(next year * 3)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(second year * 3)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(third year * 3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mse!$J$65:$M$65</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100937.0240283889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64988.698547212553</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47076.26806435507</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50408.315234956091</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F50-4364-A03C-50BBB0B9B3A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="1963931855"/>
+        <c:axId val="1382574719"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1963931855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1382574719"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1382574719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1963931855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1062,19 +1861,1137 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1362,8 +3279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:Y67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U71" sqref="U71"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3707,7 +5624,7 @@
         <v>3.4003288288829397E-2</v>
       </c>
     </row>
-    <row r="66" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
         <v>11</v>
@@ -3718,8 +5635,14 @@
       <c r="H66" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="67" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E67" s="2" t="s">
         <v>10</v>
       </c>
@@ -3731,6 +5654,12 @@
       </c>
       <c r="H67" s="4">
         <v>0.70141458420316483</v>
+      </c>
+      <c r="I67" s="4">
+        <v>0.77970641288442966</v>
+      </c>
+      <c r="J67" s="5">
+        <v>0.67827612251550418</v>
       </c>
     </row>
   </sheetData>
@@ -3742,10 +5671,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:R58"/>
+  <dimension ref="C4:R64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T46" sqref="T46"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5506,17 +7435,50 @@
         <v>5.4522627493806421</v>
       </c>
     </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="F63" s="2"/>
+      <c r="G63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="4">
+        <v>207.1667103864734</v>
+      </c>
+      <c r="H64" s="4">
+        <v>161.29672246376811</v>
+      </c>
+      <c r="I64" s="4">
+        <v>136.73759492753624</v>
+      </c>
+      <c r="J64" s="4">
+        <v>173.03002608695641</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:S57"/>
+  <dimension ref="C3:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="T58" sqref="T58"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7277,7 +9239,40 @@
         <v>7375.3722008762497</v>
       </c>
     </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="I64" s="2"/>
+      <c r="J64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J65" s="6">
+        <v>100937.0240283889</v>
+      </c>
+      <c r="K65" s="6">
+        <v>64988.698547212553</v>
+      </c>
+      <c r="L65" s="6">
+        <v>47076.26806435507</v>
+      </c>
+      <c r="M65" s="6">
+        <v>50408.315234956091</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/migforecasting/underground/tests on superdataset/test-22.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-22.xlsx
@@ -8,8 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="r2" sheetId="1" r:id="rId1"/>
-    <sheet name="mae" sheetId="2" r:id="rId2"/>
-    <sheet name="mse" sheetId="3" r:id="rId3"/>
+    <sheet name="r2 (2Ysum)" sheetId="4" r:id="rId2"/>
+    <sheet name="mae" sheetId="2" r:id="rId3"/>
+    <sheet name="mse" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="20">
   <si>
     <t>Random Forest-100 (superdataset-24-f 3Ysum.csv)</t>
   </si>
@@ -78,6 +79,9 @@
   </si>
   <si>
     <t>(third year * 3)</t>
+  </si>
+  <si>
+    <t>Random Forest-100 (superdataset-24-f 2Ysum.csv)</t>
   </si>
 </sst>
 </file>
@@ -918,7 +922,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1016,7 +1019,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3279,8 +3281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:Y67"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:O57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5671,9 +5673,1304 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:O57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.93150131168613637</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.48158352219436151</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.7328261160883589</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <f>C5+1</f>
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.92937188802588511</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.51374867566029625</v>
+      </c>
+      <c r="I6" s="2">
+        <f>I5+1</f>
+        <v>2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.81156795793393999</v>
+      </c>
+      <c r="N6" s="2">
+        <f>N5+1</f>
+        <v>2</v>
+      </c>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <f t="shared" ref="C7:C54" si="0">C6+1</f>
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.92816576041059184</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.53398838623476363</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" ref="I7:I54" si="1">I6+1</f>
+        <v>3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.78895231922312026</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" ref="N7:N54" si="2">N6+1</f>
+        <v>3</v>
+      </c>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.93058878099651565</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.53561266794425677</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.83283066195875255</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.92994795806995567</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.45748876950753081</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.77883834797005469</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.92968496353074004</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.48381749646353017</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.76571336575083537</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.93042005938377392</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.53083944161761398</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.77190474471957016</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.93045742861543168</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.48766686221497091</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.74143615641260419</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.93153463278398718</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.50731254894258271</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.81948870997368461</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.93240175587189034</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.48798875019573951</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.77034405579522025</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.93366489105197503</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.49795235066818172</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.79758876088385089</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.93255159291706469</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.51559911271845593</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.76195408003286547</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.93065740591097657</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.50873136960700849</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.74964674834410983</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.93040957575384831</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.51909231727920913</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.75346932384082188</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.93143326530503567</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.48324327911865861</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.78668206422229736</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.9272634859141996</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.53677297537956636</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.75543843228912744</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.93081517984767637</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.54593808844202818</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.78173828401931256</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.93051178589247086</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.5126328686153625</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.7927907612647439</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.93151541924309023</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.50504173424329535</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.7992002650369554</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.92967010106471115</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.54118422614498574</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0.79576976186300852</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.92949217784545068</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.52363980369992436</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.75158070984674707</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.93035596633835738</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.47924862956313141</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0.7800408627700568</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.93099968399584432</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.52125520804731207</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0.77870660781914558</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.92754414634808358</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.49940020845842881</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0.76174899013519481</v>
+      </c>
+      <c r="N28" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.93087809788640896</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.53843839502352986</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0.77091959415287703</v>
+      </c>
+      <c r="N29" s="2">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.93232568205862421</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.54402084820828944</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.77427505679205644</v>
+      </c>
+      <c r="N30" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.92881601700134042</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.52084507191612883</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0.75058708408046437</v>
+      </c>
+      <c r="N31" s="2">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.92724674655940187</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.52333816497346608</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0.80091715014380749</v>
+      </c>
+      <c r="N32" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.929123089208296</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.48551896960273833</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0.79280340328115162</v>
+      </c>
+      <c r="N33" s="2">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.92688863937515098</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.49931852176302838</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0.73302701977319129</v>
+      </c>
+      <c r="N34" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.92841239488108818</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.5292294032568301</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0.76039576791459251</v>
+      </c>
+      <c r="N35" s="2">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.93032160985634504</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.53820389859832418</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0.78802817783949064</v>
+      </c>
+      <c r="N36" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.93119936222312527</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.50577583149120409</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0.81305402062467935</v>
+      </c>
+      <c r="N37" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C38" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.93191612289777748</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.48600758598846161</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0.68953577597343774</v>
+      </c>
+      <c r="N38" s="2">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C39" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.93139810604088336</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.53388510925371924</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0.81338973318411723</v>
+      </c>
+      <c r="N39" s="2">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.92927223776240986</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.52663097730093922</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0.78162820883950246</v>
+      </c>
+      <c r="N40" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C41" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.93369237988585629</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.51237572861077141</v>
+      </c>
+      <c r="I41" s="2">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0.76374453810411369</v>
+      </c>
+      <c r="N41" s="2">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C42" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.93181248713186438</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.47810807611232747</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0.7745329274249132</v>
+      </c>
+      <c r="N42" s="2">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C43" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.92872391534372911</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.49101890834140161</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0.78949950132067181</v>
+      </c>
+      <c r="N43" s="2">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C44" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.93466029419652563</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.46302753934504709</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0.78153021711246362</v>
+      </c>
+      <c r="N44" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C45" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.92973486428499708</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.55389486553546741</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0.75739746440256905</v>
+      </c>
+      <c r="N45" s="2">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C46" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.92975170256200779</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.51485494765265138</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0.77051436374736282</v>
+      </c>
+      <c r="N46" s="2">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C47" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.93074855317303662</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.50449484961317359</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0.7815408127343475</v>
+      </c>
+      <c r="N47" s="2">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C48" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.93112516016439395</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.4850380192935817</v>
+      </c>
+      <c r="I48" s="2">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0.75794159724765886</v>
+      </c>
+      <c r="N48" s="2">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C49" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.93008155089365496</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.51056899530882083</v>
+      </c>
+      <c r="I49" s="2">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0.7767275661938231</v>
+      </c>
+      <c r="N49" s="2">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C50" s="2">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.93086131913458459</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.52226631985304439</v>
+      </c>
+      <c r="I50" s="2">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0.78347363738138953</v>
+      </c>
+      <c r="N50" s="2">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C51" s="2">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.92763428022809524</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.56792770501704881</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0.78451508270848291</v>
+      </c>
+      <c r="N51" s="2">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C52" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.92863832242031008</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.52142898800581849</v>
+      </c>
+      <c r="I52" s="2">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0.7571682834862079</v>
+      </c>
+      <c r="N52" s="2">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C53" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.92800895050972809</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0.5658557211999734</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0.79481763168054775</v>
+      </c>
+      <c r="N53" s="2">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C54" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.93109698007917019</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.51379303350812111</v>
+      </c>
+      <c r="I54" s="2">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0.77251168034336959</v>
+      </c>
+      <c r="N54" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="3">
+        <f>AVERAGE(D5:D54)</f>
+        <v>0.93030656165125014</v>
+      </c>
+      <c r="E56" s="3">
+        <f>AVERAGE(E5:E54)</f>
+        <v>0.51291291535470207</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J56" s="3">
+        <f>AVERAGE(J5:J54)</f>
+        <v>0.77549468769363328</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O56" s="3" t="e">
+        <f>AVERAGE(O5:O54)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="3">
+        <f>_xlfn.STDEV.S(D5:D54)</f>
+        <v>1.705477609169737E-3</v>
+      </c>
+      <c r="E57" s="3">
+        <f>_xlfn.STDEV.S(E5:E54)</f>
+        <v>2.4908626127406807E-2</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3">
+        <f>_xlfn.STDEV.S(J5:J54)</f>
+        <v>2.4855103371876817E-2</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3" t="e">
+        <f>_xlfn.STDEV.S(O5:O54)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
@@ -7473,7 +8770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:S65"/>
   <sheetViews>

--- a/migforecasting/underground/tests on superdataset/test-22.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-22.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="r2" sheetId="1" r:id="rId1"/>
+    <sheet name="r2 (3Ysum)" sheetId="1" r:id="rId1"/>
     <sheet name="r2 (2Ysum)" sheetId="4" r:id="rId2"/>
     <sheet name="mae" sheetId="2" r:id="rId3"/>
     <sheet name="mse" sheetId="3" r:id="rId4"/>
@@ -266,7 +266,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'r2'!$E$67</c:f>
+              <c:f>'r2 (3Ysum)'!$E$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -322,7 +322,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -342,7 +341,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'r2'!$G$66:$J$66</c:f>
+              <c:f>'r2 (3Ysum)'!$G$66:$J$66</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -362,7 +361,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'r2'!$G$67:$J$67</c:f>
+              <c:f>'r2 (3Ysum)'!$G$67:$J$67</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -574,7 +573,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -672,7 +670,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3281,8 +3278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:Y67"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:O57"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5675,8 +5672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5729,7 +5726,9 @@
       <c r="N5" s="2">
         <v>1</v>
       </c>
-      <c r="O5" s="3"/>
+      <c r="O5" s="3">
+        <v>0.74995119740402449</v>
+      </c>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
@@ -5753,7 +5752,9 @@
         <f>N5+1</f>
         <v>2</v>
       </c>
-      <c r="O6" s="3"/>
+      <c r="O6" s="3">
+        <v>0.72994623940247072</v>
+      </c>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
@@ -5777,7 +5778,9 @@
         <f t="shared" ref="N7:N54" si="2">N6+1</f>
         <v>3</v>
       </c>
-      <c r="O7" s="3"/>
+      <c r="O7" s="3">
+        <v>0.78747870174024426</v>
+      </c>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
@@ -5801,7 +5804,9 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="O8" s="3"/>
+      <c r="O8" s="3">
+        <v>0.76590417310426728</v>
+      </c>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
@@ -5825,7 +5830,9 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="O9" s="3"/>
+      <c r="O9" s="3">
+        <v>0.74365369599550224</v>
+      </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
@@ -5849,7 +5856,9 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="O10" s="3"/>
+      <c r="O10" s="3">
+        <v>0.80488910579054207</v>
+      </c>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
@@ -5873,7 +5882,9 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="O11" s="3"/>
+      <c r="O11" s="3">
+        <v>0.73546295652133042</v>
+      </c>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
@@ -5897,7 +5908,9 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
+      <c r="O12" s="3">
+        <v>0.75905178300506737</v>
+      </c>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
@@ -5921,7 +5934,9 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="O13" s="3"/>
+      <c r="O13" s="3">
+        <v>0.73192789792037583</v>
+      </c>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
@@ -5945,7 +5960,9 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="O14" s="3"/>
+      <c r="O14" s="3">
+        <v>0.78510939810378322</v>
+      </c>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
@@ -5969,7 +5986,9 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="O15" s="3"/>
+      <c r="O15" s="3">
+        <v>0.75414727289791361</v>
+      </c>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
@@ -5993,7 +6012,9 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="O16" s="3"/>
+      <c r="O16" s="3">
+        <v>0.76915500421989946</v>
+      </c>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
@@ -6017,7 +6038,9 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="O17" s="3"/>
+      <c r="O17" s="3">
+        <v>0.7408840928606053</v>
+      </c>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
@@ -6041,7 +6064,9 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="O18" s="3"/>
+      <c r="O18" s="3">
+        <v>0.76972414196612637</v>
+      </c>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
@@ -6065,7 +6090,9 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="O19" s="3"/>
+      <c r="O19" s="3">
+        <v>0.74528569226484565</v>
+      </c>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
@@ -6089,7 +6116,9 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="O20" s="3"/>
+      <c r="O20" s="3">
+        <v>0.75338963090976008</v>
+      </c>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C21" s="2">
@@ -6113,7 +6142,9 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="O21" s="3"/>
+      <c r="O21" s="3">
+        <v>0.78271669402007271</v>
+      </c>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
@@ -6137,7 +6168,9 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="O22" s="3"/>
+      <c r="O22" s="3">
+        <v>0.79082521425867958</v>
+      </c>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
@@ -6161,7 +6194,9 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="O23" s="3"/>
+      <c r="O23" s="3">
+        <v>0.73813935433949185</v>
+      </c>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
@@ -6185,7 +6220,9 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="O24" s="3"/>
+      <c r="O24" s="3">
+        <v>0.74509551410407893</v>
+      </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C25" s="2">
@@ -6209,7 +6246,9 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="O25" s="3"/>
+      <c r="O25" s="3">
+        <v>0.76642778565008984</v>
+      </c>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C26" s="2">
@@ -6233,7 +6272,9 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="O26" s="3"/>
+      <c r="O26" s="3">
+        <v>0.76718742642304072</v>
+      </c>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
@@ -6257,7 +6298,9 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="O27" s="3"/>
+      <c r="O27" s="3">
+        <v>0.75424973380895755</v>
+      </c>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C28" s="2">
@@ -6281,7 +6324,9 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="O28" s="3"/>
+      <c r="O28" s="3">
+        <v>0.75307341057087318</v>
+      </c>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
@@ -6305,7 +6350,9 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="O29" s="3"/>
+      <c r="O29" s="3">
+        <v>0.72056234999534308</v>
+      </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C30" s="2">
@@ -6329,7 +6376,9 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="O30" s="3"/>
+      <c r="O30" s="3">
+        <v>0.72554415739991618</v>
+      </c>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
@@ -6353,7 +6402,9 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="O31" s="3"/>
+      <c r="O31" s="3">
+        <v>0.7626359930255292</v>
+      </c>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
@@ -6377,7 +6428,9 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="O32" s="3"/>
+      <c r="O32" s="3">
+        <v>0.77240527493968014</v>
+      </c>
     </row>
     <row r="33" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
@@ -6401,7 +6454,9 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="O33" s="3"/>
+      <c r="O33" s="3">
+        <v>0.77538005867413284</v>
+      </c>
     </row>
     <row r="34" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
@@ -6425,7 +6480,9 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="O34" s="3"/>
+      <c r="O34" s="3">
+        <v>0.75390166007005976</v>
+      </c>
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
@@ -6449,7 +6506,9 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="O35" s="3"/>
+      <c r="O35" s="3">
+        <v>0.74711139504130619</v>
+      </c>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
@@ -6473,7 +6532,9 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="O36" s="3"/>
+      <c r="O36" s="3">
+        <v>0.72502240747618041</v>
+      </c>
     </row>
     <row r="37" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
@@ -6497,7 +6558,9 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="O37" s="3"/>
+      <c r="O37" s="3">
+        <v>0.71253520940690906</v>
+      </c>
     </row>
     <row r="38" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
@@ -6521,7 +6584,9 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="O38" s="3"/>
+      <c r="O38" s="3">
+        <v>0.79798960787518869</v>
+      </c>
     </row>
     <row r="39" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
@@ -6545,7 +6610,9 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="O39" s="3"/>
+      <c r="O39" s="3">
+        <v>0.76621468970142592</v>
+      </c>
     </row>
     <row r="40" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
@@ -6569,7 +6636,9 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="O40" s="3"/>
+      <c r="O40" s="3">
+        <v>0.76014353324770312</v>
+      </c>
     </row>
     <row r="41" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C41" s="2">
@@ -6593,7 +6662,9 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="O41" s="3"/>
+      <c r="O41" s="3">
+        <v>0.76665951138330413</v>
+      </c>
     </row>
     <row r="42" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C42" s="2">
@@ -6617,7 +6688,9 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="O42" s="3"/>
+      <c r="O42" s="3">
+        <v>0.77116390542677904</v>
+      </c>
     </row>
     <row r="43" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C43" s="2">
@@ -6641,7 +6714,9 @@
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="O43" s="3"/>
+      <c r="O43" s="3">
+        <v>0.75177730984304492</v>
+      </c>
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C44" s="2">
@@ -6665,7 +6740,9 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="O44" s="3"/>
+      <c r="O44" s="3">
+        <v>0.77197291722174777</v>
+      </c>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C45" s="2">
@@ -6689,7 +6766,9 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="O45" s="3"/>
+      <c r="O45" s="3">
+        <v>0.75155626397156294</v>
+      </c>
     </row>
     <row r="46" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C46" s="2">
@@ -6713,7 +6792,9 @@
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="O46" s="3"/>
+      <c r="O46" s="3">
+        <v>0.75272651768634424</v>
+      </c>
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C47" s="2">
@@ -6737,7 +6818,9 @@
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="O47" s="3"/>
+      <c r="O47" s="3">
+        <v>0.77299045571756364</v>
+      </c>
     </row>
     <row r="48" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C48" s="2">
@@ -6761,7 +6844,9 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="O48" s="3"/>
+      <c r="O48" s="3">
+        <v>0.7332146947029119</v>
+      </c>
     </row>
     <row r="49" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C49" s="2">
@@ -6785,7 +6870,9 @@
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="O49" s="3"/>
+      <c r="O49" s="3">
+        <v>0.70291196689766799</v>
+      </c>
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
@@ -6809,7 +6896,9 @@
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="O50" s="3"/>
+      <c r="O50" s="3">
+        <v>0.78000263064132591</v>
+      </c>
     </row>
     <row r="51" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
@@ -6833,7 +6922,9 @@
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="O51" s="3"/>
+      <c r="O51" s="3">
+        <v>0.73635078630843065</v>
+      </c>
     </row>
     <row r="52" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
@@ -6857,7 +6948,9 @@
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="O52" s="3"/>
+      <c r="O52" s="3">
+        <v>0.75421281482107705</v>
+      </c>
     </row>
     <row r="53" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
@@ -6881,7 +6974,9 @@
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="O53" s="3"/>
+      <c r="O53" s="3">
+        <v>0.75278289519513475</v>
+      </c>
     </row>
     <row r="54" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
@@ -6905,7 +7000,9 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="O54" s="3"/>
+      <c r="O54" s="3">
+        <v>0.76275529405823606</v>
+      </c>
     </row>
     <row r="56" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C56" s="2" t="s">
@@ -6929,9 +7026,9 @@
       <c r="N56" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O56" s="3" t="e">
+      <c r="O56" s="3">
         <f>AVERAGE(O5:O54)</f>
-        <v>#DIV/0!</v>
+        <v>0.75608400836021072</v>
       </c>
     </row>
     <row r="57" spans="3:15" x14ac:dyDescent="0.25">
@@ -6956,9 +7053,9 @@
       <c r="N57" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O57" s="3" t="e">
+      <c r="O57" s="3">
         <f>_xlfn.STDEV.S(O5:O54)</f>
-        <v>#DIV/0!</v>
+        <v>2.1434777788001756E-2</v>
       </c>
     </row>
   </sheetData>

--- a/migforecasting/underground/tests on superdataset/test-22.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-22.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="r2 (3Ysum)" sheetId="1" r:id="rId1"/>
     <sheet name="r2 (2Ysum)" sheetId="4" r:id="rId2"/>
-    <sheet name="mae" sheetId="2" r:id="rId3"/>
-    <sheet name="mse" sheetId="3" r:id="rId4"/>
+    <sheet name="mae (3Ysum)" sheetId="2" r:id="rId3"/>
+    <sheet name="mae (2Ysum)" sheetId="5" r:id="rId4"/>
+    <sheet name="mse (3Ysum)" sheetId="3" r:id="rId5"/>
+    <sheet name="mse (2Ysum)" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="23">
   <si>
     <t>Random Forest-100 (superdataset-24-f 3Ysum.csv)</t>
   </si>
@@ -82,6 +84,15 @@
   </si>
   <si>
     <t>Random Forest-100 (superdataset-24-f 2Ysum.csv)</t>
+  </si>
+  <si>
+    <t>Random Forest-100 (superdataset-24-f 2Y.csv + extrapol)</t>
+  </si>
+  <si>
+    <t>Random Forest-100 (superdataset-24-f.csv + extrapol)</t>
+  </si>
+  <si>
+    <t>RF-100 (superdataset-24-f 2Ysum.csv + extrapol)</t>
   </si>
 </sst>
 </file>
@@ -614,7 +625,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>mae!$F$64</c:f>
+              <c:f>'mae (3Ysum)'!$F$64</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -689,7 +700,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>mae!$G$63:$J$63</c:f>
+              <c:f>'mae (3Ysum)'!$G$63:$J$63</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -709,7 +720,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mae!$G$64:$J$64</c:f>
+              <c:f>'mae (3Ysum)'!$G$64:$J$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -960,7 +971,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>mse!$I$65</c:f>
+              <c:f>'mse (3Ysum)'!$I$65</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1035,7 +1046,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>mse!$J$64:$M$64</c:f>
+              <c:f>'mse (3Ysum)'!$J$64:$M$64</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1055,7 +1066,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mse!$J$65:$M$65</c:f>
+              <c:f>'mse (3Ysum)'!$J$65:$M$65</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3278,7 +3289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:Y67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
@@ -5672,7 +5683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:O57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
@@ -8869,9 +8880,1412 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:N57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>57.42236764371733</v>
+      </c>
+      <c r="E5" s="3">
+        <v>153.08869209809271</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>97.469482288828331</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>108.2972025431426</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <f>C5+1</f>
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>58.083435582822091</v>
+      </c>
+      <c r="E6" s="3">
+        <v>155.63464123524071</v>
+      </c>
+      <c r="H6" s="2">
+        <f>H5+1</f>
+        <v>2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>102.0591099000908</v>
+      </c>
+      <c r="M6" s="2">
+        <f>M5+1</f>
+        <v>2</v>
+      </c>
+      <c r="N6" s="3">
+        <v>102.626012715713</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <f t="shared" ref="C7:C54" si="0">C6+1</f>
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>57.613662803908198</v>
+      </c>
+      <c r="E7" s="3">
+        <v>157.80290644868299</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" ref="H7:H54" si="1">H6+1</f>
+        <v>3</v>
+      </c>
+      <c r="I7" s="3">
+        <v>96.433514986376011</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" ref="M7:M54" si="2">M6+1</f>
+        <v>3</v>
+      </c>
+      <c r="N7" s="3">
+        <v>106.4411807447775</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D8" s="3">
+        <v>57.660688479890929</v>
+      </c>
+      <c r="E8" s="3">
+        <v>152.5310081743869</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
+        <v>97.722670299727497</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N8" s="3">
+        <v>107.03734786557671</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>58.234264939786407</v>
+      </c>
+      <c r="E9" s="3">
+        <v>157.12846503178929</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>95.699636693914599</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
+        <v>106.6933514986376</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D10" s="3">
+        <v>57.316044080890698</v>
+      </c>
+      <c r="E10" s="3">
+        <v>163.6525068119891</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I10" s="3">
+        <v>99.081525885558563</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N10" s="3">
+        <v>108.07188010899181</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D11" s="3">
+        <v>57.943369688707108</v>
+      </c>
+      <c r="E11" s="3">
+        <v>150.67436875567671</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I11" s="3">
+        <v>100.8880653950954</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="N11" s="3">
+        <v>107.61495004541329</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D12" s="3">
+        <v>57.743771870029533</v>
+      </c>
+      <c r="E12" s="3">
+        <v>156.0106902815622</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I12" s="3">
+        <v>102.371625794732</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="N12" s="3">
+        <v>101.9230336058129</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D13" s="3">
+        <v>57.880463531015671</v>
+      </c>
+      <c r="E13" s="3">
+        <v>157.56526793823789</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I13" s="3">
+        <v>95.690445049954576</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="N13" s="3">
+        <v>97.759981834695751</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D14" s="3">
+        <v>57.476934787548281</v>
+      </c>
+      <c r="E14" s="3">
+        <v>157.90913714804719</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
+        <v>94.250808356039954</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
+        <v>103.3532970027248</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D15" s="3">
+        <v>57.790777096114518</v>
+      </c>
+      <c r="E15" s="3">
+        <v>151.87198001816529</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I15" s="3">
+        <v>99.481180744777447</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="N15" s="3">
+        <v>107.103178928247</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D16" s="3">
+        <v>57.680652124517152</v>
+      </c>
+      <c r="E16" s="3">
+        <v>156.58782016348769</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I16" s="3">
+        <v>97.16806539509534</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="N16" s="3">
+        <v>100.7662488646685</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D17" s="3">
+        <v>57.286873437855029</v>
+      </c>
+      <c r="E17" s="3">
+        <v>153.5406539509537</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="I17" s="3">
+        <v>97.226920980926394</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="N17" s="3">
+        <v>99.653841961852848</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D18" s="3">
+        <v>57.716028175414678</v>
+      </c>
+      <c r="E18" s="3">
+        <v>154.17144414168939</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="I18" s="3">
+        <v>97.207338782924595</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="N18" s="3">
+        <v>96.098819255222509</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D19" s="3">
+        <v>57.169570552147242</v>
+      </c>
+      <c r="E19" s="3">
+        <v>157.8547683923706</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I19" s="3">
+        <v>98.519945504087175</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="N19" s="3">
+        <v>104.7041598546776</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D20" s="3">
+        <v>58.55688479890933</v>
+      </c>
+      <c r="E20" s="3">
+        <v>146.7482107175295</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I20" s="3">
+        <v>96.685867393278855</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="N20" s="3">
+        <v>102.98421435059041</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D21" s="3">
+        <v>57.793571915473763</v>
+      </c>
+      <c r="E21" s="3">
+        <v>151.3588101725704</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I21" s="3">
+        <v>92.225940054495894</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="N21" s="3">
+        <v>101.3662670299727</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D22" s="3">
+        <v>57.589872756191767</v>
+      </c>
+      <c r="E22" s="3">
+        <v>154.25776566757489</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I22" s="3">
+        <v>98.478583106267038</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N22" s="3">
+        <v>99.515113533151663</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D23" s="3">
+        <v>57.679029765962291</v>
+      </c>
+      <c r="E23" s="3">
+        <v>158.7515803814714</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I23" s="3">
+        <v>97.470535876475935</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="N23" s="3">
+        <v>100.7651771117166</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D24" s="3">
+        <v>57.516612133606003</v>
+      </c>
+      <c r="E24" s="3">
+        <v>153.94846503178931</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I24" s="3">
+        <v>96.242870118074478</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="N24" s="3">
+        <v>104.752570390554</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D25" s="3">
+        <v>57.858082254033171</v>
+      </c>
+      <c r="E25" s="3">
+        <v>153.86128973660311</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="I25" s="3">
+        <v>95.880617620345134</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="N25" s="3">
+        <v>105.5956403269755</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D26" s="3">
+        <v>58.217957282435798</v>
+      </c>
+      <c r="E26" s="3">
+        <v>146.20872842870119</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="I26" s="3">
+        <v>98.342270663033617</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="N26" s="3">
+        <v>99.840454132606709</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D27" s="3">
+        <v>58.13500113610543</v>
+      </c>
+      <c r="E27" s="3">
+        <v>154.2507992733878</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="I27" s="3">
+        <v>96.742325158946372</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="N27" s="3">
+        <v>101.5761671207992</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D28" s="3">
+        <v>58.358127698250399</v>
+      </c>
+      <c r="E28" s="3">
+        <v>146.88576748410529</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="I28" s="3">
+        <v>88.842833787465921</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="N28" s="3">
+        <v>102.16663033605811</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D29" s="3">
+        <v>57.664998863894567</v>
+      </c>
+      <c r="E29" s="3">
+        <v>155.720199818347</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I29" s="3">
+        <v>96.177057220708434</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="N29" s="3">
+        <v>103.1237783832879</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D30" s="3">
+        <v>57.656359918200422</v>
+      </c>
+      <c r="E30" s="3">
+        <v>150.51209809264299</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="I30" s="3">
+        <v>100.1052861035422</v>
+      </c>
+      <c r="M30" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="N30" s="3">
+        <v>103.6975840145322</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D31" s="3">
+        <v>57.550572597137013</v>
+      </c>
+      <c r="E31" s="3">
+        <v>154.08174386920979</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="I31" s="3">
+        <v>96.344232515894632</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="N31" s="3">
+        <v>110.5325340599455</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D32" s="3">
+        <v>57.91888888888888</v>
+      </c>
+      <c r="E32" s="3">
+        <v>155.3110081743869</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="I32" s="3">
+        <v>94.506394187102615</v>
+      </c>
+      <c r="M32" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="N32" s="3">
+        <v>103.8625613079019</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D33" s="3">
+        <v>57.235985003408302</v>
+      </c>
+      <c r="E33" s="3">
+        <v>156.8839146230699</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="I33" s="3">
+        <v>96.508446866484988</v>
+      </c>
+      <c r="M33" s="2">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="N33" s="3">
+        <v>102.9285013623978</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D34" s="3">
+        <v>57.845453306066808</v>
+      </c>
+      <c r="E34" s="3">
+        <v>155.88603088101729</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I34" s="3">
+        <v>93.649445958219786</v>
+      </c>
+      <c r="M34" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="N34" s="3">
+        <v>107.4908446866485</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D35" s="3">
+        <v>57.410902067711888</v>
+      </c>
+      <c r="E35" s="3">
+        <v>153.53993642143499</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="I35" s="3">
+        <v>99.279636693914597</v>
+      </c>
+      <c r="M35" s="2">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="N35" s="3">
+        <v>99.137584014532237</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D36" s="3">
+        <v>58.119909111565548</v>
+      </c>
+      <c r="E36" s="3">
+        <v>152.74011807447769</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="I36" s="3">
+        <v>91.810299727520416</v>
+      </c>
+      <c r="M36" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="N36" s="3">
+        <v>105.4259945504087</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D37" s="3">
+        <v>57.61810270393093</v>
+      </c>
+      <c r="E37" s="3">
+        <v>148.87551316984559</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="I37" s="3">
+        <v>96.733896457765667</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="N37" s="3">
+        <v>96.313496821071723</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C38" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D38" s="3">
+        <v>57.226328107248357</v>
+      </c>
+      <c r="E38" s="3">
+        <v>160.485267938238</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="I38" s="3">
+        <v>96.777075386012697</v>
+      </c>
+      <c r="M38" s="2">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="N38" s="3">
+        <v>98.811771117166188</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C39" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D39" s="3">
+        <v>57.020752101795047</v>
+      </c>
+      <c r="E39" s="3">
+        <v>164.4917347865576</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="I39" s="3">
+        <v>88.399436875567645</v>
+      </c>
+      <c r="M39" s="2">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="N39" s="3">
+        <v>101.2734059945504</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D40" s="3">
+        <v>57.459345603271977</v>
+      </c>
+      <c r="E40" s="3">
+        <v>152.7913169845595</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="I40" s="3">
+        <v>95.027593097184365</v>
+      </c>
+      <c r="M40" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="N40" s="3">
+        <v>104.6140599455041</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C41" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D41" s="3">
+        <v>58.273490115882758</v>
+      </c>
+      <c r="E41" s="3">
+        <v>153.28508628519521</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="I41" s="3">
+        <v>99.227556766575816</v>
+      </c>
+      <c r="M41" s="2">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="N41" s="3">
+        <v>107.5674114441417</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C42" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D42" s="3">
+        <v>57.393503749147918</v>
+      </c>
+      <c r="E42" s="3">
+        <v>158.62842870118081</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="I42" s="3">
+        <v>94.925104450499546</v>
+      </c>
+      <c r="M42" s="2">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="N42" s="3">
+        <v>100.45193460490459</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C43" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D43" s="3">
+        <v>58.043540104521703</v>
+      </c>
+      <c r="E43" s="3">
+        <v>153.13031789282471</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="I43" s="3">
+        <v>96.752425068119877</v>
+      </c>
+      <c r="M43" s="2">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="N43" s="3">
+        <v>99.968446866485024</v>
+      </c>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C44" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D44" s="3">
+        <v>57.554448988866163</v>
+      </c>
+      <c r="E44" s="3">
+        <v>157.07642143505899</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I44" s="3">
+        <v>93.38519527702087</v>
+      </c>
+      <c r="M44" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="N44" s="3">
+        <v>104.2006176203451</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C45" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D45" s="3">
+        <v>56.886755282890249</v>
+      </c>
+      <c r="E45" s="3">
+        <v>157.79351498637601</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="I45" s="3">
+        <v>97.961271571298823</v>
+      </c>
+      <c r="M45" s="2">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="N45" s="3">
+        <v>101.72713896457761</v>
+      </c>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C46" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="D46" s="3">
+        <v>57.994417177914109</v>
+      </c>
+      <c r="E46" s="3">
+        <v>146.96031789282469</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="I46" s="3">
+        <v>100.3552770208901</v>
+      </c>
+      <c r="M46" s="2">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="N46" s="3">
+        <v>102.7732243415077</v>
+      </c>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C47" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D47" s="3">
+        <v>58.137137014314924</v>
+      </c>
+      <c r="E47" s="3">
+        <v>154.60679382379661</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="I47" s="3">
+        <v>88.122034514078095</v>
+      </c>
+      <c r="M47" s="2">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="N47" s="3">
+        <v>96.002670299727498</v>
+      </c>
+    </row>
+    <row r="48" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C48" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D48" s="3">
+        <v>56.879247898204952</v>
+      </c>
+      <c r="E48" s="3">
+        <v>155.76591280653949</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="I48" s="3">
+        <v>96.941798365122608</v>
+      </c>
+      <c r="M48" s="2">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="N48" s="3">
+        <v>103.0816712079927</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C49" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D49" s="3">
+        <v>57.659082026812086</v>
+      </c>
+      <c r="E49" s="3">
+        <v>153.32366030881019</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="I49" s="3">
+        <v>100.921689373297</v>
+      </c>
+      <c r="M49" s="2">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="N49" s="3">
+        <v>109.4195095367847</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C50" s="2">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D50" s="3">
+        <v>57.75422858441263</v>
+      </c>
+      <c r="E50" s="3">
+        <v>155.73538601271571</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="I50" s="3">
+        <v>100.47603996366939</v>
+      </c>
+      <c r="M50" s="2">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="N50" s="3">
+        <v>106.3633605812897</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C51" s="2">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D51" s="3">
+        <v>57.48920245398773</v>
+      </c>
+      <c r="E51" s="3">
+        <v>154.8752588555858</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="I51" s="3">
+        <v>97.53785649409626</v>
+      </c>
+      <c r="M51" s="2">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="N51" s="3">
+        <v>105.8273569482289</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C52" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D52" s="3">
+        <v>57.280870256759833</v>
+      </c>
+      <c r="E52" s="3">
+        <v>158.13183469573119</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="I52" s="3">
+        <v>94.146539509536751</v>
+      </c>
+      <c r="M52" s="2">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="N52" s="3">
+        <v>97.299218891916411</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C53" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D53" s="3">
+        <v>58.015769143376502</v>
+      </c>
+      <c r="E53" s="3">
+        <v>150.41401453224341</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="I53" s="3">
+        <v>91.838655767484099</v>
+      </c>
+      <c r="M53" s="2">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="N53" s="3">
+        <v>99.88263396911897</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C54" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D54" s="3">
+        <v>57.301983640081787</v>
+      </c>
+      <c r="E54" s="3">
+        <v>150.40585831062671</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I54" s="3">
+        <v>92.166957311534972</v>
+      </c>
+      <c r="M54" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="N54" s="3">
+        <v>103.7087011807448</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="3">
+        <f>AVERAGE(D5:D54)</f>
+        <v>57.682306384912508</v>
+      </c>
+      <c r="E56" s="3">
+        <f>AVERAGE(E5:E54)</f>
+        <v>154.47494913714809</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I56" s="3">
+        <f>AVERAGE(I5:I54)</f>
+        <v>96.445187647593102</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N56" s="3">
+        <f>AVERAGE(N5:N54)</f>
+        <v>103.04385467756582</v>
+      </c>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="3">
+        <f>_xlfn.STDEV.S(D5:D54)</f>
+        <v>0.37626716294116108</v>
+      </c>
+      <c r="E57" s="3">
+        <f>_xlfn.STDEV.S(E5:E54)</f>
+        <v>3.8647643939201433</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3">
+        <f>_xlfn.STDEV.S(I5:I54)</f>
+        <v>3.2340449236910516</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3">
+        <f>_xlfn.STDEV.S(N5:N54)</f>
+        <v>3.5862149092731741</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:S65"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
@@ -10669,4 +12083,1306 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:N57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>7823.1866903658247</v>
+      </c>
+      <c r="E5" s="3">
+        <v>52710.215953496809</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>19988.180811262479</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <f>C5+1</f>
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>7660.0111798909347</v>
+      </c>
+      <c r="E6" s="3">
+        <v>55518.847043415073</v>
+      </c>
+      <c r="H6" s="2">
+        <f>H5+1</f>
+        <v>2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>25762.852665213439</v>
+      </c>
+      <c r="M6" s="2">
+        <f>M5+1</f>
+        <v>2</v>
+      </c>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <f t="shared" ref="C7:C54" si="0">C6+1</f>
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>7711.5818334242222</v>
+      </c>
+      <c r="E7" s="3">
+        <v>49560.706226975468</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" ref="H7:H54" si="1">H6+1</f>
+        <v>3</v>
+      </c>
+      <c r="I7" s="3">
+        <v>25352.916455949129</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" ref="M7:M54" si="2">M6+1</f>
+        <v>3</v>
+      </c>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D8" s="3">
+        <v>7762.1150897296066</v>
+      </c>
+      <c r="E8" s="3">
+        <v>52971.517823614893</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
+        <v>24894.749163669389</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>7544.6509077482378</v>
+      </c>
+      <c r="E9" s="3">
+        <v>53749.129033424157</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>26957.038760762938</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D10" s="3">
+        <v>7898.2810496478069</v>
+      </c>
+      <c r="E10" s="3">
+        <v>47687.253339600356</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I10" s="3">
+        <v>24830.75390735695</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D11" s="3">
+        <v>7450.3752128152692</v>
+      </c>
+      <c r="E11" s="3">
+        <v>58094.200009355132</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I11" s="3">
+        <v>24969.679909173479</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D12" s="3">
+        <v>7507.2787979777322</v>
+      </c>
+      <c r="E12" s="3">
+        <v>55329.209005722063</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I12" s="3">
+        <v>22185.101828156221</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D13" s="3">
+        <v>7588.7223692797088</v>
+      </c>
+      <c r="E13" s="3">
+        <v>57686.881398455938</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I13" s="3">
+        <v>31867.699928792001</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D14" s="3">
+        <v>7570.3558720745277</v>
+      </c>
+      <c r="E14" s="3">
+        <v>51072.729917257027</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
+        <v>21240.903485921881</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D15" s="3">
+        <v>7802.6547137695979</v>
+      </c>
+      <c r="E15" s="3">
+        <v>48057.7256342416</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I15" s="3">
+        <v>21795.601074659389</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D16" s="3">
+        <v>7631.4438752329024</v>
+      </c>
+      <c r="E16" s="3">
+        <v>50594.544134786542</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I16" s="3">
+        <v>22037.024806176199</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D17" s="3">
+        <v>7440.5710242444911</v>
+      </c>
+      <c r="E17" s="3">
+        <v>54321.468932788368</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="I17" s="3">
+        <v>26236.623352225241</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D18" s="3">
+        <v>7354.9719687116567</v>
+      </c>
+      <c r="E18" s="3">
+        <v>55850.850886103537</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="I18" s="3">
+        <v>27147.73105467757</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D19" s="3">
+        <v>7398.8778024539897</v>
+      </c>
+      <c r="E19" s="3">
+        <v>57232.675819164389</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I19" s="3">
+        <v>20544.2572544959</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D20" s="3">
+        <v>7710.6561312428967</v>
+      </c>
+      <c r="E20" s="3">
+        <v>51584.592219436861</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I20" s="3">
+        <v>19110.42362470481</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D21" s="3">
+        <v>7689.9652432174516</v>
+      </c>
+      <c r="E21" s="3">
+        <v>58188.184075386009</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I21" s="3">
+        <v>25860.425137874648</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D22" s="3">
+        <v>7519.277775664621</v>
+      </c>
+      <c r="E22" s="3">
+        <v>56606.090532970033</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I22" s="3">
+        <v>27472.0514990009</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D23" s="3">
+        <v>7782.7081836173611</v>
+      </c>
+      <c r="E23" s="3">
+        <v>51142.05237166211</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I23" s="3">
+        <v>27885.479411080829</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D24" s="3">
+        <v>7807.0051742331298</v>
+      </c>
+      <c r="E24" s="3">
+        <v>49307.501654132597</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I24" s="3">
+        <v>22540.642134423251</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D25" s="3">
+        <v>7769.362968370825</v>
+      </c>
+      <c r="E25" s="3">
+        <v>45691.652806721147</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="I25" s="3">
+        <v>29237.82799527701</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D26" s="3">
+        <v>7853.8772735741886</v>
+      </c>
+      <c r="E26" s="3">
+        <v>56604.223211444143</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="I26" s="3">
+        <v>23716.743336603078</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D27" s="3">
+        <v>7699.6338483980926</v>
+      </c>
+      <c r="E27" s="3">
+        <v>52656.326339055391</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="I27" s="3">
+        <v>29189.776946775652</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D28" s="3">
+        <v>7521.6410705294275</v>
+      </c>
+      <c r="E28" s="3">
+        <v>50762.124475749311</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="I28" s="3">
+        <v>24353.516116621238</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D29" s="3">
+        <v>7451.2328930924796</v>
+      </c>
+      <c r="E29" s="3">
+        <v>58152.843750499538</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I29" s="3">
+        <v>23709.83611952771</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D30" s="3">
+        <v>7681.3967379004771</v>
+      </c>
+      <c r="E30" s="3">
+        <v>52709.304436421422</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="I30" s="3">
+        <v>18306.851416167119</v>
+      </c>
+      <c r="M30" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D31" s="3">
+        <v>7480.9009831856411</v>
+      </c>
+      <c r="E31" s="3">
+        <v>54041.1170181653</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="I31" s="3">
+        <v>29864.813650862841</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D32" s="3">
+        <v>7707.2291962054069</v>
+      </c>
+      <c r="E32" s="3">
+        <v>51117.340942870112</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="I32" s="3">
+        <v>25500.028851952771</v>
+      </c>
+      <c r="M32" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D33" s="3">
+        <v>7492.9524796182704</v>
+      </c>
+      <c r="E33" s="3">
+        <v>54472.262249318803</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="I33" s="3">
+        <v>27626.105386012721</v>
+      </c>
+      <c r="M33" s="2">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D34" s="3">
+        <v>7694.3423088389</v>
+      </c>
+      <c r="E34" s="3">
+        <v>46423.384147229794</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I34" s="3">
+        <v>29556.621621435061</v>
+      </c>
+      <c r="M34" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D35" s="3">
+        <v>7399.6571902976602</v>
+      </c>
+      <c r="E35" s="3">
+        <v>60090.636205086281</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="I35" s="3">
+        <v>29468.62768937329</v>
+      </c>
+      <c r="M35" s="2">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D36" s="3">
+        <v>7778.3690815042046</v>
+      </c>
+      <c r="E36" s="3">
+        <v>51204.762465122607</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="I36" s="3">
+        <v>26302.726810535871</v>
+      </c>
+      <c r="M36" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D37" s="3">
+        <v>7364.594412519883</v>
+      </c>
+      <c r="E37" s="3">
+        <v>61698.750824069022</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="I37" s="3">
+        <v>23987.593416893731</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C38" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D38" s="3">
+        <v>7946.5256880027273</v>
+      </c>
+      <c r="E38" s="3">
+        <v>49725.176980381468</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="I38" s="3">
+        <v>22007.317797275209</v>
+      </c>
+      <c r="M38" s="2">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C39" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D39" s="3">
+        <v>8187.0029045898664</v>
+      </c>
+      <c r="E39" s="3">
+        <v>46272.614880108988</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="I39" s="3">
+        <v>33985.91971335149</v>
+      </c>
+      <c r="M39" s="2">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D40" s="3">
+        <v>7238.5136854124066</v>
+      </c>
+      <c r="E40" s="3">
+        <v>61604.841711353307</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="I40" s="3">
+        <v>30214.322368392379</v>
+      </c>
+      <c r="M40" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C41" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D41" s="3">
+        <v>7751.791144126335</v>
+      </c>
+      <c r="E41" s="3">
+        <v>56188.949595367827</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="I41" s="3">
+        <v>26575.209826339691</v>
+      </c>
+      <c r="M41" s="2">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C42" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D42" s="3">
+        <v>7772.6786802772094</v>
+      </c>
+      <c r="E42" s="3">
+        <v>50070.648766939143</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="I42" s="3">
+        <v>29032.851417257039</v>
+      </c>
+      <c r="M42" s="2">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C43" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D43" s="3">
+        <v>7500.7386740286311</v>
+      </c>
+      <c r="E43" s="3">
+        <v>53672.770570663022</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="I43" s="3">
+        <v>22909.176117711158</v>
+      </c>
+      <c r="M43" s="2">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C44" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D44" s="3">
+        <v>7386.9451976141781</v>
+      </c>
+      <c r="E44" s="3">
+        <v>58701.652054314247</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I44" s="3">
+        <v>29475.973014713891</v>
+      </c>
+      <c r="M44" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C45" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D45" s="3">
+        <v>7799.2555106793943</v>
+      </c>
+      <c r="E45" s="3">
+        <v>47962.967841416888</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="I45" s="3">
+        <v>22714.205055404171</v>
+      </c>
+      <c r="M45" s="2">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C46" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="D46" s="3">
+        <v>7606.2456468757118</v>
+      </c>
+      <c r="E46" s="3">
+        <v>44076.784974205257</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="I46" s="3">
+        <v>26018.82962870118</v>
+      </c>
+      <c r="M46" s="2">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C47" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D47" s="3">
+        <v>7535.7360952738027</v>
+      </c>
+      <c r="E47" s="3">
+        <v>54239.344323887373</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="I47" s="3">
+        <v>24108.260384377842</v>
+      </c>
+      <c r="M47" s="2">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C48" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D48" s="3">
+        <v>7170.7148357873211</v>
+      </c>
+      <c r="E48" s="3">
+        <v>63582.563860127149</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="I48" s="3">
+        <v>22262.613278474098</v>
+      </c>
+      <c r="M48" s="2">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C49" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D49" s="3">
+        <v>7246.8165271301996</v>
+      </c>
+      <c r="E49" s="3">
+        <v>61552.921761217083</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="I49" s="3">
+        <v>21762.464642325151</v>
+      </c>
+      <c r="M49" s="2">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C50" s="2">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D50" s="3">
+        <v>7389.5526797318798</v>
+      </c>
+      <c r="E50" s="3">
+        <v>56887.663075749311</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="I50" s="3">
+        <v>21174.720312443231</v>
+      </c>
+      <c r="M50" s="2">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C51" s="2">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D51" s="3">
+        <v>7658.9704080663487</v>
+      </c>
+      <c r="E51" s="3">
+        <v>44901.241692915522</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="I51" s="3">
+        <v>27372.740427974561</v>
+      </c>
+      <c r="M51" s="2">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C52" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D52" s="3">
+        <v>7888.4768890933883</v>
+      </c>
+      <c r="E52" s="3">
+        <v>58875.970708991823</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="I52" s="3">
+        <v>20963.740673206172</v>
+      </c>
+      <c r="M52" s="2">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C53" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D53" s="3">
+        <v>7553.6412702340394</v>
+      </c>
+      <c r="E53" s="3">
+        <v>54874.120382742964</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="I53" s="3">
+        <v>26174.130431244321</v>
+      </c>
+      <c r="M53" s="2">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C54" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D54" s="3">
+        <v>7491.3349712792542</v>
+      </c>
+      <c r="E54" s="3">
+        <v>52482.709580653936</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I54" s="3">
+        <v>20206.96591825613</v>
+      </c>
+      <c r="M54" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="3">
+        <f>AVERAGE(D5:D54)</f>
+        <v>7613.4964429516021</v>
+      </c>
+      <c r="E56" s="3">
+        <f>AVERAGE(E5:E54)</f>
+        <v>53571.280952895548</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I56" s="3">
+        <f>AVERAGE(I5:I54)</f>
+        <v>25129.21293262126</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N56" s="3" t="e">
+        <f>AVERAGE(N5:N54)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="3">
+        <f>_xlfn.STDEV.S(D5:D54)</f>
+        <v>201.56299174951789</v>
+      </c>
+      <c r="E57" s="3">
+        <f>_xlfn.STDEV.S(E5:E54)</f>
+        <v>4683.0130682009703</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3">
+        <f>_xlfn.STDEV.S(I5:I54)</f>
+        <v>3508.9550639479116</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3" t="e">
+        <f>_xlfn.STDEV.S(N5:N54)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/migforecasting/underground/tests on superdataset/test-22.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-22.xlsx
@@ -12090,7 +12090,7 @@
   <dimension ref="C3:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12150,7 +12150,9 @@
       <c r="M5" s="2">
         <v>1</v>
       </c>
-      <c r="N5" s="3"/>
+      <c r="N5" s="3">
+        <v>34502.219893551322</v>
+      </c>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
@@ -12174,7 +12176,9 @@
         <f>M5+1</f>
         <v>2</v>
       </c>
-      <c r="N6" s="3"/>
+      <c r="N6" s="3">
+        <v>25575.293685376921</v>
+      </c>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
@@ -12198,7 +12202,9 @@
         <f t="shared" ref="M7:M54" si="2">M6+1</f>
         <v>3</v>
       </c>
-      <c r="N7" s="3"/>
+      <c r="N7" s="3">
+        <v>27527.12490572207</v>
+      </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
@@ -12222,7 +12228,9 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N8" s="3"/>
+      <c r="N8" s="3">
+        <v>21384.566414532241</v>
+      </c>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
@@ -12246,7 +12254,9 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N9" s="3"/>
+      <c r="N9" s="3">
+        <v>27085.683077565842</v>
+      </c>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
@@ -12270,7 +12280,9 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="N10" s="3"/>
+      <c r="N10" s="3">
+        <v>28476.734489373299</v>
+      </c>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
@@ -12294,7 +12306,9 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="N11" s="3"/>
+      <c r="N11" s="3">
+        <v>27077.582967484101</v>
+      </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
@@ -12318,7 +12332,9 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
+      <c r="N12" s="3">
+        <v>26628.425764577649</v>
+      </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
@@ -12342,7 +12358,9 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="N13" s="3"/>
+      <c r="N13" s="3">
+        <v>29405.42495404177</v>
+      </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
@@ -12366,7 +12384,9 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="N14" s="3"/>
+      <c r="N14" s="3">
+        <v>28703.283207266111</v>
+      </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
@@ -12390,7 +12410,9 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="N15" s="3"/>
+      <c r="N15" s="3">
+        <v>22092.301140781099</v>
+      </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
@@ -12414,7 +12436,9 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="N16" s="3"/>
+      <c r="N16" s="3">
+        <v>25953.812155131691</v>
+      </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
@@ -12438,7 +12462,9 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="N17" s="3"/>
+      <c r="N17" s="3">
+        <v>27821.480453769302</v>
+      </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
@@ -12462,7 +12488,9 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="N18" s="3"/>
+      <c r="N18" s="3">
+        <v>27838.79081525885</v>
+      </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
@@ -12486,7 +12514,9 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="N19" s="3"/>
+      <c r="N19" s="3">
+        <v>25870.22933914623</v>
+      </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
@@ -12510,7 +12540,9 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="N20" s="3"/>
+      <c r="N20" s="3">
+        <v>24846.992360762939</v>
+      </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C21" s="2">
@@ -12534,7 +12566,9 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="N21" s="3"/>
+      <c r="N21" s="3">
+        <v>23736.14106557675</v>
+      </c>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
@@ -12558,7 +12592,9 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="N22" s="3"/>
+      <c r="N22" s="3">
+        <v>26362.956930790191</v>
+      </c>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
@@ -12582,7 +12618,9 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="N23" s="3"/>
+      <c r="N23" s="3">
+        <v>27480.216748047231</v>
+      </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
@@ -12606,7 +12644,9 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="N24" s="3"/>
+      <c r="N24" s="3">
+        <v>24043.32874586738</v>
+      </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C25" s="2">
@@ -12630,7 +12670,9 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="N25" s="3"/>
+      <c r="N25" s="3">
+        <v>28385.239127702091</v>
+      </c>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C26" s="2">
@@ -12654,7 +12696,9 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="N26" s="3"/>
+      <c r="N26" s="3">
+        <v>20175.915136784741</v>
+      </c>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
@@ -12678,7 +12722,9 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="N27" s="3"/>
+      <c r="N27" s="3">
+        <v>27921.91306158037</v>
+      </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C28" s="2">
@@ -12702,7 +12748,9 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="N28" s="3"/>
+      <c r="N28" s="3">
+        <v>27791.54312588555</v>
+      </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
@@ -12726,7 +12774,9 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="N29" s="3"/>
+      <c r="N29" s="3">
+        <v>21539.069658128981</v>
+      </c>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C30" s="2">
@@ -12750,7 +12800,9 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="N30" s="3"/>
+      <c r="N30" s="3">
+        <v>33628.939120799267</v>
+      </c>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
@@ -12774,7 +12826,9 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="N31" s="3"/>
+      <c r="N31" s="3">
+        <v>31318.72610426883</v>
+      </c>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
@@ -12798,7 +12852,9 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="N32" s="3"/>
+      <c r="N32" s="3">
+        <v>27313.788173297002</v>
+      </c>
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
@@ -12822,7 +12878,9 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="N33" s="3"/>
+      <c r="N33" s="3">
+        <v>26192.68274296094</v>
+      </c>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
@@ -12846,7 +12904,9 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="N34" s="3"/>
+      <c r="N34" s="3">
+        <v>22778.67878328792</v>
+      </c>
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
@@ -12870,7 +12930,9 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="N35" s="3"/>
+      <c r="N35" s="3">
+        <v>28720.51647956403</v>
+      </c>
     </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
@@ -12894,7 +12956,9 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="N36" s="3"/>
+      <c r="N36" s="3">
+        <v>25526.191755858312</v>
+      </c>
     </row>
     <row r="37" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
@@ -12918,7 +12982,9 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="N37" s="3"/>
+      <c r="N37" s="3">
+        <v>27571.763638147131</v>
+      </c>
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
@@ -12942,7 +13008,9 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="N38" s="3"/>
+      <c r="N38" s="3">
+        <v>30256.78878801089</v>
+      </c>
     </row>
     <row r="39" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
@@ -12966,7 +13034,9 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="N39" s="3"/>
+      <c r="N39" s="3">
+        <v>24169.101326067201</v>
+      </c>
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
@@ -12990,7 +13060,9 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="N40" s="3"/>
+      <c r="N40" s="3">
+        <v>23871.78472043596</v>
+      </c>
     </row>
     <row r="41" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C41" s="2">
@@ -13014,7 +13086,9 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="N41" s="3"/>
+      <c r="N41" s="3">
+        <v>29646.2960959128</v>
+      </c>
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C42" s="2">
@@ -13038,7 +13112,9 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="N42" s="3"/>
+      <c r="N42" s="3">
+        <v>28792.718485013618</v>
+      </c>
     </row>
     <row r="43" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C43" s="2">
@@ -13062,7 +13138,9 @@
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="N43" s="3"/>
+      <c r="N43" s="3">
+        <v>25922.16662270662</v>
+      </c>
     </row>
     <row r="44" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C44" s="2">
@@ -13086,7 +13164,9 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="N44" s="3"/>
+      <c r="N44" s="3">
+        <v>28710.912568210711</v>
+      </c>
     </row>
     <row r="45" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C45" s="2">
@@ -13110,7 +13190,9 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="N45" s="3"/>
+      <c r="N45" s="3">
+        <v>27013.757437238859</v>
+      </c>
     </row>
     <row r="46" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C46" s="2">
@@ -13134,7 +13216,9 @@
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="N46" s="3"/>
+      <c r="N46" s="3">
+        <v>24378.651235603989</v>
+      </c>
     </row>
     <row r="47" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C47" s="2">
@@ -13158,7 +13242,9 @@
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="N47" s="3"/>
+      <c r="N47" s="3">
+        <v>25213.660931880109</v>
+      </c>
     </row>
     <row r="48" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C48" s="2">
@@ -13182,7 +13268,9 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="N48" s="3"/>
+      <c r="N48" s="3">
+        <v>25801.094716439598</v>
+      </c>
     </row>
     <row r="49" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C49" s="2">
@@ -13206,7 +13294,9 @@
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="N49" s="3"/>
+      <c r="N49" s="3">
+        <v>26359.244130426869</v>
+      </c>
     </row>
     <row r="50" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
@@ -13230,7 +13320,9 @@
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="N50" s="3"/>
+      <c r="N50" s="3">
+        <v>26790.604630699359</v>
+      </c>
     </row>
     <row r="51" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
@@ -13254,7 +13346,9 @@
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="N51" s="3"/>
+      <c r="N51" s="3">
+        <v>25730.73638510445</v>
+      </c>
     </row>
     <row r="52" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
@@ -13278,7 +13372,9 @@
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="N52" s="3"/>
+      <c r="N52" s="3">
+        <v>26960.308219800168</v>
+      </c>
     </row>
     <row r="53" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
@@ -13302,7 +13398,9 @@
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="N53" s="3"/>
+      <c r="N53" s="3">
+        <v>24106.8282212534</v>
+      </c>
     </row>
     <row r="54" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
@@ -13326,7 +13424,9 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="N54" s="3"/>
+      <c r="N54" s="3">
+        <v>29653.797887738401</v>
+      </c>
     </row>
     <row r="56" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C56" s="2" t="s">
@@ -13350,9 +13450,9 @@
       <c r="M56" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N56" s="3" t="e">
+      <c r="N56" s="3">
         <f>AVERAGE(N5:N54)</f>
-        <v>#DIV/0!</v>
+        <v>26693.120168508627</v>
       </c>
     </row>
     <row r="57" spans="3:14" x14ac:dyDescent="0.25">
@@ -13377,9 +13477,9 @@
       <c r="M57" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N57" s="3" t="e">
+      <c r="N57" s="3">
         <f>_xlfn.STDEV.S(N5:N54)</f>
-        <v>#DIV/0!</v>
+        <v>2810.4640970080959</v>
       </c>
     </row>
   </sheetData>
